--- a/Area_de_Proceso-_REQM/LMREQM/LMREQM_V1.1_2015.xlsx
+++ b/Area_de_Proceso-_REQM/LMREQM/LMREQM_V1.1_2015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thefa\Downloads\UTP-GPS-ALARM-master\Area_de_Proceso-_REQM\LMREQM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UTP-GPS-ALARM\UTP-GPS-ALARM\Area_de_Proceso-_REQM\LMREQM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="767" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7650" tabRatio="767" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="34" r:id="rId1"/>
@@ -47,12 +47,12 @@
     <definedName name="TipoProyecto">'Diccionario de atributos-valor'!$E$20:$E$23</definedName>
     <definedName name="TipoRequerimientoDeSistema">'Diccionario de atributos-valor'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="177">
   <si>
     <t>Color</t>
   </si>
@@ -205,9 +205,6 @@
     <t>Las celdas con este color de fondo y color de letra, son celdas que se obtienen mediante fórmula.</t>
   </si>
   <si>
-    <t>Requerimientos de Usuario (RUSU)</t>
-  </si>
-  <si>
     <t>Requerimientos de Usuario</t>
   </si>
   <si>
@@ -260,12 +257,6 @@
   </si>
   <si>
     <t>El requerimiento nació durante la ejecución del mantenimiento producto de un manejo de cambios.</t>
-  </si>
-  <si>
-    <t>Refiere a la descripcion corta del usuario</t>
-  </si>
-  <si>
-    <t>Refiere a la descripcion detallada del usuario</t>
   </si>
   <si>
     <t>Fecha de último cambio aprobado</t>
@@ -281,12 +272,6 @@
 Usado como llave.</t>
   </si>
   <si>
-    <t>Tipo de Proyecto asociado</t>
-  </si>
-  <si>
-    <t>Tipos de proyecto que forman parte del Servicio de Modelamiento y Optimización de Procesos de TdP, al cual debe pertenecer el requerimiento de servicio identificado</t>
-  </si>
-  <si>
     <t>Representa el código único del requerimiento de usuario.
 Usado como llave.</t>
   </si>
@@ -310,66 +295,7 @@
     <t>Sub Proceso / Área</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Nombre del proceso o sistema que requiere ser modelado, actualizado o gestionado. 
-1. Se registrará el </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Proceso</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, para el caso de que la solicitud sea del tipo de proyecto: 
-- Homogeneización y optimización de procesos
-- Transformación organizacional
-- Gerenciamiento de proyectos
-- Diseño de proceso para nuevos productos
-- Procesos para el desarrollo de sistemas de software
-Deben ser identificados dentro del Modelo de Referencia de Procesos de Latinoamética (MRPL).
-2. Se registrará el </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sistema</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, para el caso de que la solicitud sea del tipo de proyecto: 
-- Gestión del Cambio</t>
-    </r>
-  </si>
-  <si>
-    <t>Nombre de los subprocesos o áreas que están involucrados en el requerimiento y requerien ser modeladas, actualizadas o gestionadas. 
-1. Subproceso: Cuando en la columna "Proceso / Sistema" se ha registrado Proceso.
-2. Área: Cuando en la columna "Proceso / Sistema" se ha registrado el Sistema.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nombre del proceso o sistema que requiere ser modelado, actualizado o gestionado. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre de los subprocesos o áreas que están involucrados en el requerimiento y requerien ser modeladas, actualizadas o gestionadas. </t>
-  </si>
-  <si>
-    <t>Descripcion de la observación</t>
   </si>
   <si>
     <t>Diccionario de atributos y valores asociados de la lista maestra de requerimientos</t>
@@ -444,15 +370,9 @@
     <t>Desarrollo</t>
   </si>
   <si>
-    <t>Instalacion de paquetes</t>
-  </si>
-  <si>
     <t>Fecha Efectiva: 13/10/2015</t>
   </si>
   <si>
-    <t>Gestion</t>
-  </si>
-  <si>
     <t>Roger Apaestegui (Jefe de Proyecto)</t>
   </si>
   <si>
@@ -469,9 +389,6 @@
   </si>
   <si>
     <t>Jefe de Proyecto</t>
-  </si>
-  <si>
-    <t>Mantenimiento</t>
   </si>
   <si>
     <t>Version Preliminar</t>
@@ -544,12 +461,6 @@
     <t>LMREQM Lista Maestra de Requerimientos</t>
   </si>
   <si>
-    <t>Manuel Saenz Tarazona (MST E.I.R.L.)</t>
-  </si>
-  <si>
-    <t>Modulo de Mapa GPS y Modulo de Configuracion de Alarma deben estar en uno solo.</t>
-  </si>
-  <si>
     <t>DICCIONARIO DE ATRIBUTOS DE LA LISTA DE REQUERIMIENTOS</t>
   </si>
   <si>
@@ -604,9 +515,6 @@
     <t>Obtención de Ubicación para emitir alarma en función de la posición</t>
   </si>
   <si>
-    <t>Conprobación de Seguridad con el Muestreo de la Licencia</t>
-  </si>
-  <si>
     <t>Ahorro de Energía</t>
   </si>
   <si>
@@ -704,12 +612,104 @@
   </si>
   <si>
     <t>Representa el nombre del Jefe del proyecto, que gestiona los requerimientos</t>
+  </si>
+  <si>
+    <t>Modulo de Mapa GPS y Modulo de Configuración de Alarma deben estar en uno solo.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nombre del proceso o sistema que requiere ser modelado, actualizado o gestionado. 
+1. Se registrará el </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Proceso</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, para el caso de que la solicitud sea del tipo de proyecto: 
+- Homogeneización y optimización de procesos
+- Transformación organizacional
+- Gerenciamiento de proyectos
+- Diseño de proceso para nuevos productos
+- Procesos para el desarrollo de sistemas de software
+Deben ser identificados dentro del Modelo de Referencia de Procesos de Latinoamérica (MRPL).
+2. Se registrará el </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sistema</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, para el caso de que la solicitud sea del tipo de proyecto: 
+- Gestión del Cambio</t>
+    </r>
+  </si>
+  <si>
+    <t>Nombre de los subprocesos o áreas que están involucrados en el requerimiento y requieren ser modeladas, actualizadas o gestionadas. 
+1. Subproceso: Cuando en la columna "Proceso / Sistema" se ha registrado Proceso.
+2. Área: Cuando en la columna "Proceso / Sistema" se ha registrado el Sistema.</t>
+  </si>
+  <si>
+    <t>Gestión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre de los subprocesos o áreas que están involucrados en el requerimiento y requieren ser modeladas, actualizadas o gestionadas. </t>
+  </si>
+  <si>
+    <t>Descripción de la observación</t>
+  </si>
+  <si>
+    <t>Refiere a la descripción corta del usuario</t>
+  </si>
+  <si>
+    <t>Refiere a la descripción detallada del usuario</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Parte del proceso de desarrollo del proyecto al cual debe pertenecer el requerimiento de servicio identificado</t>
+  </si>
+  <si>
+    <t>Análisis</t>
+  </si>
+  <si>
+    <t>Producción</t>
+  </si>
+  <si>
+    <t>LMREQM - Requerimientos de Usuario</t>
+  </si>
+  <si>
+    <t>Comprobación de Seguridad con el Muestreo de la Licencia</t>
+  </si>
+  <si>
+    <t>Manuel Sáenz Tarazona (MST E.I.R.L.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1733,9 +1733,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1748,60 +1745,141 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1832,83 +1910,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1921,10 +1924,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1959,6 +1958,51 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1968,9 +2012,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1983,62 +2024,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2822,15 +2822,15 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="55"/>
-      <c r="B2" s="136" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
+      <c r="B2" s="139" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
       <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:9">
@@ -2847,7 +2847,7 @@
     <row r="4" spans="1:9" ht="33" customHeight="1">
       <c r="A4" s="55"/>
       <c r="B4" s="70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="70" t="s">
         <v>21</v>
@@ -2862,90 +2862,83 @@
         <v>1</v>
       </c>
       <c r="G4" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="70" t="s">
         <v>53</v>
-      </c>
-      <c r="H4" s="70" t="s">
-        <v>54</v>
       </c>
       <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="A5" s="55"/>
-      <c r="B5" s="137">
+      <c r="B5" s="136">
         <v>1</v>
       </c>
-      <c r="C5" s="138" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="139">
+      <c r="C5" s="137" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="138">
         <v>42290</v>
       </c>
-      <c r="E5" s="137" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" s="137" t="s">
-        <v>171</v>
-      </c>
-      <c r="G5" s="137" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="137" t="s">
-        <v>170</v>
+      <c r="E5" s="136" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="136" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="136" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="136" t="s">
+        <v>155</v>
       </c>
       <c r="I5" s="55"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1">
       <c r="A6" s="55"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
       <c r="I6" s="55"/>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1">
-      <c r="B7" s="137">
+      <c r="B7" s="136">
         <v>2</v>
       </c>
-      <c r="C7" s="138" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" s="139">
+      <c r="C7" s="137" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="138">
         <v>42313</v>
       </c>
-      <c r="E7" s="137" t="s">
-        <v>169</v>
-      </c>
-      <c r="F7" s="137" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" s="137" t="s">
-        <v>172</v>
-      </c>
-      <c r="H7" s="137" t="s">
-        <v>170</v>
+      <c r="E7" s="136" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="136" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="136" t="s">
+        <v>157</v>
+      </c>
+      <c r="H7" s="136" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="B8" s="137"/>
-      <c r="C8" s="138"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -2954,6 +2947,13 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2963,11 +2963,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IU200"/>
+  <dimension ref="A1:IU199"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F53" sqref="F53:H53"/>
+      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2996,26 +2996,26 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="74"/>
-      <c r="E2" s="158" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
+      <c r="E2" s="184" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="159" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
+        <v>62</v>
+      </c>
+      <c r="E3" s="185" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
     </row>
     <row r="4" spans="1:8" s="80" customFormat="1">
       <c r="A4" s="76"/>
@@ -3042,13 +3042,13 @@
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="165" t="s">
+      <c r="D6" s="191" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="165"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="165"/>
-      <c r="H6" s="165"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="191"/>
     </row>
     <row r="7" spans="1:8" s="80" customFormat="1">
       <c r="A7" s="76"/>
@@ -3074,15 +3074,15 @@
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="160" t="s">
+      <c r="D9" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="161"/>
+      <c r="E9" s="187"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="166" t="s">
+      <c r="G9" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="166"/>
+      <c r="H9" s="192"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="9"/>
@@ -3096,14 +3096,14 @@
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="162" t="s">
+      <c r="D11" s="188" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="162"/>
-      <c r="G11" s="167" t="s">
+      <c r="E11" s="188"/>
+      <c r="G11" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="167"/>
+      <c r="H11" s="193"/>
     </row>
     <row r="12" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A12" s="9"/>
@@ -3116,14 +3116,14 @@
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="163" t="s">
+      <c r="D13" s="189" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="163"/>
-      <c r="G13" s="167" t="s">
+      <c r="E13" s="189"/>
+      <c r="G13" s="193" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="167"/>
+      <c r="H13" s="193"/>
     </row>
     <row r="14" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A14" s="9"/>
@@ -3134,14 +3134,14 @@
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="164" t="s">
+      <c r="D15" s="190" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="164"/>
-      <c r="G15" s="167" t="s">
+      <c r="E15" s="190"/>
+      <c r="G15" s="193" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="167"/>
+      <c r="H15" s="193"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="7"/>
@@ -3152,14 +3152,14 @@
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="155" t="s">
+      <c r="D17" s="183" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="155"/>
-      <c r="G17" s="167" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="167"/>
+      <c r="E17" s="183"/>
+      <c r="G17" s="193" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="193"/>
     </row>
     <row r="18" spans="1:8" s="17" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="15"/>
@@ -3176,79 +3176,79 @@
       <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:8" s="19" customFormat="1" ht="16.5" customHeight="1">
-      <c r="D20" s="153" t="s">
+      <c r="D20" s="150" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="153"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="153"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="150"/>
     </row>
     <row r="21" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D21" s="142" t="s">
+      <c r="D21" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="143"/>
-      <c r="F21" s="154" t="s">
+      <c r="E21" s="182"/>
+      <c r="F21" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
     </row>
     <row r="22" spans="1:8" s="19" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D22" s="156" t="s">
+      <c r="D22" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="157"/>
-      <c r="F22" s="168" t="s">
+      <c r="E22" s="180"/>
+      <c r="F22" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="168"/>
-      <c r="H22" s="168"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="149"/>
     </row>
     <row r="23" spans="1:8" s="19" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D23" s="156" t="s">
+      <c r="D23" s="179" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="180"/>
+      <c r="F23" s="149" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="149"/>
+      <c r="H23" s="149"/>
+    </row>
+    <row r="24" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
+      <c r="D24" s="179" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="180"/>
+      <c r="F24" s="168" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="169"/>
+      <c r="H24" s="170"/>
+    </row>
+    <row r="25" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
+      <c r="D25" s="179" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="180"/>
+      <c r="F25" s="149" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+    </row>
+    <row r="26" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
+      <c r="D26" s="179" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="157"/>
-      <c r="F23" s="168" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="168"/>
-      <c r="H23" s="168"/>
-    </row>
-    <row r="24" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D24" s="156" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" s="157"/>
-      <c r="F24" s="172" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" s="173"/>
-      <c r="H24" s="174"/>
-    </row>
-    <row r="25" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D25" s="156" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="157"/>
-      <c r="F25" s="168" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" s="168"/>
-      <c r="H25" s="168"/>
-    </row>
-    <row r="26" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D26" s="156" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="157"/>
-      <c r="F26" s="168" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="168"/>
-      <c r="H26" s="168"/>
+      <c r="E26" s="180"/>
+      <c r="F26" s="149" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
     </row>
     <row r="27" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
       <c r="D27" s="50"/>
@@ -3265,742 +3265,741 @@
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:8" s="19" customFormat="1" ht="16.5" customHeight="1">
-      <c r="D29" s="153" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="153"/>
-      <c r="F29" s="153"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="153"/>
+      <c r="D29" s="150" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
     </row>
     <row r="30" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D30" s="142" t="s">
+      <c r="D30" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="143"/>
-      <c r="F30" s="154" t="s">
+      <c r="E30" s="182"/>
+      <c r="F30" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="154"/>
-      <c r="H30" s="154"/>
+      <c r="G30" s="151"/>
+      <c r="H30" s="151"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="148" t="s">
+      <c r="D31" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="148"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="153"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="179" t="s">
+      <c r="D32" s="173" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="174"/>
+      <c r="F32" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="180"/>
-      <c r="F32" s="150" t="s">
-        <v>76</v>
-      </c>
-      <c r="G32" s="151"/>
-      <c r="H32" s="152"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="156"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="179" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="180"/>
-      <c r="F33" s="150" t="s">
-        <v>64</v>
-      </c>
-      <c r="G33" s="151"/>
-      <c r="H33" s="152"/>
+      <c r="D33" s="173" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="174"/>
+      <c r="F33" s="154" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="155"/>
+      <c r="H33" s="156"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="183" t="s">
+      <c r="D34" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="183"/>
-      <c r="F34" s="184"/>
-      <c r="G34" s="184"/>
-      <c r="H34" s="184"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="158"/>
     </row>
     <row r="35" spans="1:8" ht="24.75" customHeight="1">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="179" t="s">
+      <c r="D35" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="180"/>
-      <c r="F35" s="169" t="s">
-        <v>72</v>
-      </c>
-      <c r="G35" s="170"/>
-      <c r="H35" s="171"/>
-    </row>
-    <row r="36" spans="1:8" s="19" customFormat="1" ht="27.75" customHeight="1">
-      <c r="D36" s="181" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="182"/>
-      <c r="F36" s="169" t="s">
-        <v>74</v>
-      </c>
-      <c r="G36" s="170"/>
-      <c r="H36" s="171"/>
-    </row>
-    <row r="37" spans="1:8" ht="24.75" customHeight="1">
+      <c r="E35" s="174"/>
+      <c r="F35" s="159" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="160"/>
+      <c r="H35" s="161"/>
+    </row>
+    <row r="36" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="173" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="174"/>
+      <c r="F36" s="159" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" s="160"/>
+      <c r="H36" s="161"/>
+    </row>
+    <row r="37" spans="1:8" ht="42" customHeight="1">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="179" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="180"/>
-      <c r="F37" s="169" t="s">
-        <v>101</v>
-      </c>
-      <c r="G37" s="170"/>
-      <c r="H37" s="171"/>
-    </row>
-    <row r="38" spans="1:8" ht="42" customHeight="1">
+      <c r="D37" s="173" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="174"/>
+      <c r="F37" s="159" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" s="160"/>
+      <c r="H37" s="161"/>
+    </row>
+    <row r="38" spans="1:8" ht="354" customHeight="1">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="179" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="180"/>
-      <c r="F38" s="169" t="s">
-        <v>96</v>
-      </c>
-      <c r="G38" s="170"/>
+      <c r="D38" s="166" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="167"/>
+      <c r="F38" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" s="171"/>
       <c r="H38" s="171"/>
     </row>
-    <row r="39" spans="1:8" ht="354" customHeight="1">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="140" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="141"/>
-      <c r="F39" s="176" t="s">
-        <v>121</v>
-      </c>
-      <c r="G39" s="177"/>
-      <c r="H39" s="177"/>
-    </row>
-    <row r="40" spans="1:8" s="19" customFormat="1" ht="25.5" customHeight="1">
-      <c r="D40" s="146" t="s">
-        <v>95</v>
-      </c>
-      <c r="E40" s="147"/>
-      <c r="F40" s="178" t="s">
+    <row r="39" spans="1:8" s="19" customFormat="1" ht="25.5" customHeight="1">
+      <c r="D39" s="175" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="176"/>
+      <c r="F39" s="172" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="177"/>
-      <c r="H40" s="177"/>
-    </row>
-    <row r="41" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D41" s="146" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" s="147"/>
-      <c r="F41" s="176" t="s">
-        <v>84</v>
-      </c>
-      <c r="G41" s="185"/>
-      <c r="H41" s="185"/>
-    </row>
-    <row r="42" spans="1:8" s="19" customFormat="1" ht="24" customHeight="1">
-      <c r="D42" s="181" t="s">
-        <v>81</v>
-      </c>
-      <c r="E42" s="182"/>
-      <c r="F42" s="176" t="s">
-        <v>85</v>
-      </c>
-      <c r="G42" s="185"/>
-      <c r="H42" s="185"/>
-    </row>
-    <row r="43" spans="1:8" s="19" customFormat="1" ht="25.5" customHeight="1">
-      <c r="D43" s="181" t="s">
-        <v>78</v>
-      </c>
-      <c r="E43" s="182"/>
-      <c r="F43" s="176" t="s">
-        <v>79</v>
-      </c>
-      <c r="G43" s="185"/>
-      <c r="H43" s="185"/>
-    </row>
-    <row r="44" spans="1:8" s="19" customFormat="1">
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-    </row>
-    <row r="45" spans="1:8" ht="13.5">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73"/>
-    </row>
-    <row r="46" spans="1:8" s="19" customFormat="1" ht="16.5" customHeight="1">
-      <c r="D46" s="153" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" s="153"/>
-      <c r="F46" s="153"/>
-      <c r="G46" s="153"/>
-      <c r="H46" s="153"/>
-    </row>
-    <row r="47" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D47" s="142" t="s">
+      <c r="G39" s="171"/>
+      <c r="H39" s="171"/>
+    </row>
+    <row r="40" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
+      <c r="D40" s="175" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="176"/>
+      <c r="F40" s="164" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="165"/>
+      <c r="H40" s="165"/>
+    </row>
+    <row r="41" spans="1:8" s="19" customFormat="1" ht="24" customHeight="1">
+      <c r="D41" s="177" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="178"/>
+      <c r="F41" s="191" t="s">
+        <v>166</v>
+      </c>
+      <c r="G41" s="165"/>
+      <c r="H41" s="165"/>
+    </row>
+    <row r="42" spans="1:8" s="19" customFormat="1" ht="25.5" customHeight="1">
+      <c r="D42" s="177" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="178"/>
+      <c r="F42" s="164" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" s="165"/>
+      <c r="H42" s="165"/>
+    </row>
+    <row r="43" spans="1:8" s="19" customFormat="1">
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+    </row>
+    <row r="44" spans="1:8" ht="13.5">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+    </row>
+    <row r="45" spans="1:8" s="19" customFormat="1" ht="16.5" customHeight="1">
+      <c r="D45" s="150" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="150"/>
+      <c r="F45" s="150"/>
+      <c r="G45" s="150"/>
+      <c r="H45" s="150"/>
+    </row>
+    <row r="46" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
+      <c r="D46" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="143"/>
-      <c r="F47" s="154" t="s">
+      <c r="E46" s="182"/>
+      <c r="F46" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="G47" s="154"/>
-      <c r="H47" s="154"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="148" t="s">
+      <c r="G46" s="151"/>
+      <c r="H46" s="151"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="148"/>
-      <c r="F48" s="149"/>
-      <c r="G48" s="149"/>
-      <c r="H48" s="149"/>
-    </row>
-    <row r="49" spans="1:255" s="68" customFormat="1">
+      <c r="E47" s="152"/>
+      <c r="F47" s="153"/>
+      <c r="G47" s="153"/>
+      <c r="H47" s="153"/>
+    </row>
+    <row r="48" spans="1:8" s="68" customFormat="1">
+      <c r="A48" s="67"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="194" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="167"/>
+      <c r="F48" s="154" t="s">
+        <v>159</v>
+      </c>
+      <c r="G48" s="155"/>
+      <c r="H48" s="156"/>
+    </row>
+    <row r="49" spans="1:255" s="68" customFormat="1" ht="12" customHeight="1">
       <c r="A49" s="67"/>
       <c r="B49" s="67"/>
       <c r="C49" s="67"/>
-      <c r="D49" s="234" t="s">
-        <v>118</v>
-      </c>
-      <c r="E49" s="141"/>
-      <c r="F49" s="150" t="s">
-        <v>174</v>
-      </c>
-      <c r="G49" s="151"/>
-      <c r="H49" s="152"/>
-    </row>
-    <row r="50" spans="1:255" s="68" customFormat="1" ht="12" customHeight="1">
+      <c r="D49" s="175" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="176"/>
+      <c r="F49" s="154" t="s">
+        <v>63</v>
+      </c>
+      <c r="G49" s="155"/>
+      <c r="H49" s="156"/>
+    </row>
+    <row r="50" spans="1:255" s="68" customFormat="1">
       <c r="A50" s="67"/>
       <c r="B50" s="67"/>
       <c r="C50" s="67"/>
-      <c r="D50" s="146" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="147"/>
-      <c r="F50" s="150" t="s">
-        <v>64</v>
-      </c>
-      <c r="G50" s="151"/>
-      <c r="H50" s="152"/>
+      <c r="D50" s="152" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" s="152"/>
+      <c r="F50" s="153"/>
+      <c r="G50" s="153"/>
+      <c r="H50" s="153"/>
     </row>
     <row r="51" spans="1:255" s="68" customFormat="1">
       <c r="A51" s="67"/>
       <c r="B51" s="67"/>
       <c r="C51" s="67"/>
-      <c r="D51" s="148" t="s">
-        <v>41</v>
-      </c>
-      <c r="E51" s="148"/>
-      <c r="F51" s="149"/>
-      <c r="G51" s="149"/>
-      <c r="H51" s="149"/>
+      <c r="D51" s="166" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="167"/>
+      <c r="F51" s="154" t="s">
+        <v>94</v>
+      </c>
+      <c r="G51" s="155"/>
+      <c r="H51" s="156"/>
     </row>
     <row r="52" spans="1:255" s="68" customFormat="1">
       <c r="A52" s="67"/>
       <c r="B52" s="67"/>
       <c r="C52" s="67"/>
-      <c r="D52" s="140" t="s">
-        <v>28</v>
-      </c>
-      <c r="E52" s="141"/>
-      <c r="F52" s="150" t="s">
-        <v>103</v>
-      </c>
-      <c r="G52" s="151"/>
-      <c r="H52" s="152"/>
+      <c r="D52" s="166" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="167"/>
+      <c r="F52" s="154" t="s">
+        <v>167</v>
+      </c>
+      <c r="G52" s="155"/>
+      <c r="H52" s="156"/>
     </row>
     <row r="53" spans="1:255" s="68" customFormat="1">
       <c r="A53" s="67"/>
       <c r="B53" s="67"/>
       <c r="C53" s="67"/>
-      <c r="D53" s="140" t="s">
-        <v>29</v>
-      </c>
-      <c r="E53" s="141"/>
-      <c r="F53" s="150" t="s">
-        <v>86</v>
-      </c>
-      <c r="G53" s="151"/>
-      <c r="H53" s="152"/>
-    </row>
-    <row r="54" spans="1:255" s="68" customFormat="1">
-      <c r="A54" s="67"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="140" t="s">
+      <c r="D53" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="141"/>
-      <c r="F54" s="150" t="s">
+      <c r="E53" s="167"/>
+      <c r="F53" s="154" t="s">
         <v>43</v>
       </c>
-      <c r="G54" s="151"/>
-      <c r="H54" s="152"/>
-    </row>
-    <row r="55" spans="1:255" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D55" s="84"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="85"/>
-    </row>
-    <row r="56" spans="1:255" ht="13.5">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="73"/>
-      <c r="G56" s="73"/>
-      <c r="H56" s="73"/>
-    </row>
-    <row r="57" spans="1:255" s="19" customFormat="1" ht="16.5" customHeight="1">
-      <c r="D57" s="153" t="s">
+      <c r="G53" s="155"/>
+      <c r="H53" s="156"/>
+    </row>
+    <row r="54" spans="1:255" s="19" customFormat="1" ht="13.5" customHeight="1">
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="85"/>
+    </row>
+    <row r="55" spans="1:255" ht="13.5">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="73"/>
+    </row>
+    <row r="56" spans="1:255" s="19" customFormat="1" ht="16.5" customHeight="1">
+      <c r="D56" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="E57" s="153"/>
-      <c r="F57" s="153"/>
-      <c r="G57" s="153"/>
-      <c r="H57" s="153"/>
-    </row>
-    <row r="58" spans="1:255" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D58" s="142" t="s">
+      <c r="E56" s="150"/>
+      <c r="F56" s="150"/>
+      <c r="G56" s="150"/>
+      <c r="H56" s="150"/>
+    </row>
+    <row r="57" spans="1:255" s="19" customFormat="1" ht="13.5" customHeight="1">
+      <c r="D57" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="E58" s="143"/>
-      <c r="F58" s="154" t="s">
+      <c r="E57" s="182"/>
+      <c r="F57" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="G58" s="154"/>
-      <c r="H58" s="154"/>
-    </row>
-    <row r="59" spans="1:255">
+      <c r="G57" s="151"/>
+      <c r="H57" s="151"/>
+    </row>
+    <row r="58" spans="1:255">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="152" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" s="152"/>
+      <c r="F58" s="153"/>
+      <c r="G58" s="153"/>
+      <c r="H58" s="153"/>
+    </row>
+    <row r="59" spans="1:255" s="69" customFormat="1">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
-      <c r="D59" s="148" t="s">
-        <v>41</v>
-      </c>
-      <c r="E59" s="148"/>
-      <c r="F59" s="149"/>
-      <c r="G59" s="149"/>
-      <c r="H59" s="149"/>
+      <c r="D59" s="166" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59" s="167"/>
+      <c r="F59" s="154" t="s">
+        <v>168</v>
+      </c>
+      <c r="G59" s="155"/>
+      <c r="H59" s="156"/>
     </row>
     <row r="60" spans="1:255" s="69" customFormat="1">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
-      <c r="D60" s="140" t="s">
-        <v>35</v>
-      </c>
-      <c r="E60" s="141"/>
-      <c r="F60" s="150" t="s">
-        <v>67</v>
-      </c>
-      <c r="G60" s="151"/>
-      <c r="H60" s="152"/>
-    </row>
-    <row r="61" spans="1:255" s="69" customFormat="1">
+      <c r="D60" s="166" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="167"/>
+      <c r="F60" s="154" t="s">
+        <v>169</v>
+      </c>
+      <c r="G60" s="155"/>
+      <c r="H60" s="156"/>
+    </row>
+    <row r="61" spans="1:255" ht="18" customHeight="1">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
-      <c r="D61" s="140" t="s">
-        <v>36</v>
-      </c>
-      <c r="E61" s="141"/>
-      <c r="F61" s="150" t="s">
-        <v>68</v>
-      </c>
-      <c r="G61" s="151"/>
-      <c r="H61" s="152"/>
-    </row>
-    <row r="62" spans="1:255" ht="18" customHeight="1">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="83"/>
-      <c r="H62" s="83"/>
-    </row>
-    <row r="63" spans="1:255" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D63" s="153" t="s">
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="83"/>
+      <c r="H61" s="83"/>
+    </row>
+    <row r="62" spans="1:255" s="19" customFormat="1" ht="13.5" customHeight="1">
+      <c r="D62" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="E63" s="153"/>
-      <c r="F63" s="153"/>
-      <c r="G63" s="153"/>
-      <c r="H63" s="153"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
-      <c r="P63" s="8"/>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="8"/>
-      <c r="S63" s="8"/>
-      <c r="T63" s="8"/>
-      <c r="U63" s="8"/>
-      <c r="V63" s="8"/>
-      <c r="W63" s="8"/>
-      <c r="X63" s="8"/>
-      <c r="Y63" s="8"/>
-      <c r="Z63" s="8"/>
-      <c r="AA63" s="8"/>
-      <c r="AB63" s="8"/>
-      <c r="AC63" s="8"/>
-      <c r="AD63" s="8"/>
-      <c r="AE63" s="8"/>
-      <c r="AF63" s="8"/>
-      <c r="AG63" s="8"/>
-      <c r="AH63" s="8"/>
-      <c r="AI63" s="8"/>
-      <c r="AJ63" s="8"/>
-      <c r="AK63" s="8"/>
-      <c r="AL63" s="8"/>
-      <c r="AM63" s="8"/>
-      <c r="AN63" s="8"/>
-      <c r="AO63" s="8"/>
-      <c r="AP63" s="8"/>
-      <c r="AQ63" s="8"/>
-      <c r="AR63" s="8"/>
-      <c r="AS63" s="8"/>
-      <c r="AT63" s="8"/>
-      <c r="AU63" s="8"/>
-      <c r="AV63" s="8"/>
-      <c r="AW63" s="8"/>
-      <c r="AX63" s="8"/>
-      <c r="AY63" s="8"/>
-      <c r="AZ63" s="8"/>
-      <c r="BA63" s="8"/>
-      <c r="BB63" s="8"/>
-      <c r="BC63" s="8"/>
-      <c r="BD63" s="8"/>
-      <c r="BE63" s="8"/>
-      <c r="BF63" s="8"/>
-      <c r="BG63" s="8"/>
-      <c r="BH63" s="8"/>
-      <c r="BI63" s="8"/>
-      <c r="BJ63" s="8"/>
-      <c r="BK63" s="8"/>
-      <c r="BL63" s="8"/>
-      <c r="BM63" s="8"/>
-      <c r="BN63" s="8"/>
-      <c r="BO63" s="8"/>
-      <c r="BP63" s="8"/>
-      <c r="BQ63" s="8"/>
-      <c r="BR63" s="8"/>
-      <c r="BS63" s="8"/>
-      <c r="BT63" s="8"/>
-      <c r="BU63" s="8"/>
-      <c r="BV63" s="8"/>
-      <c r="BW63" s="8"/>
-      <c r="BX63" s="8"/>
-      <c r="BY63" s="8"/>
-      <c r="BZ63" s="8"/>
-      <c r="CA63" s="8"/>
-      <c r="CB63" s="8"/>
-      <c r="CC63" s="8"/>
-      <c r="CD63" s="8"/>
-      <c r="CE63" s="8"/>
-      <c r="CF63" s="8"/>
-      <c r="CG63" s="8"/>
-      <c r="CH63" s="8"/>
-      <c r="CI63" s="8"/>
-      <c r="CJ63" s="8"/>
-      <c r="CK63" s="8"/>
-      <c r="CL63" s="8"/>
-      <c r="CM63" s="8"/>
-      <c r="CN63" s="8"/>
-      <c r="CO63" s="8"/>
-      <c r="CP63" s="8"/>
-      <c r="CQ63" s="8"/>
-      <c r="CR63" s="8"/>
-      <c r="CS63" s="8"/>
-      <c r="CT63" s="8"/>
-      <c r="CU63" s="8"/>
-      <c r="CV63" s="8"/>
-      <c r="CW63" s="8"/>
-      <c r="CX63" s="8"/>
-      <c r="CY63" s="8"/>
-      <c r="CZ63" s="8"/>
-      <c r="DA63" s="8"/>
-      <c r="DB63" s="8"/>
-      <c r="DC63" s="8"/>
-      <c r="DD63" s="8"/>
-      <c r="DE63" s="8"/>
-      <c r="DF63" s="8"/>
-      <c r="DG63" s="8"/>
-      <c r="DH63" s="8"/>
-      <c r="DI63" s="8"/>
-      <c r="DJ63" s="8"/>
-      <c r="DK63" s="8"/>
-      <c r="DL63" s="8"/>
-      <c r="DM63" s="8"/>
-      <c r="DN63" s="8"/>
-      <c r="DO63" s="8"/>
-      <c r="DP63" s="8"/>
-      <c r="DQ63" s="8"/>
-      <c r="DR63" s="8"/>
-      <c r="DS63" s="8"/>
-      <c r="DT63" s="8"/>
-      <c r="DU63" s="8"/>
-      <c r="DV63" s="8"/>
-      <c r="DW63" s="8"/>
-      <c r="DX63" s="8"/>
-      <c r="DY63" s="8"/>
-      <c r="DZ63" s="8"/>
-      <c r="EA63" s="8"/>
-      <c r="EB63" s="8"/>
-      <c r="EC63" s="8"/>
-      <c r="ED63" s="8"/>
-      <c r="EE63" s="8"/>
-      <c r="EF63" s="8"/>
-      <c r="EG63" s="8"/>
-      <c r="EH63" s="8"/>
-      <c r="EI63" s="8"/>
-      <c r="EJ63" s="8"/>
-      <c r="EK63" s="8"/>
-      <c r="EL63" s="8"/>
-      <c r="EM63" s="8"/>
-      <c r="EN63" s="8"/>
-      <c r="EO63" s="8"/>
-      <c r="EP63" s="8"/>
-      <c r="EQ63" s="8"/>
-      <c r="ER63" s="8"/>
-      <c r="ES63" s="8"/>
-      <c r="ET63" s="8"/>
-      <c r="EU63" s="8"/>
-      <c r="EV63" s="8"/>
-      <c r="EW63" s="8"/>
-      <c r="EX63" s="8"/>
-      <c r="EY63" s="8"/>
-      <c r="EZ63" s="8"/>
-      <c r="FA63" s="8"/>
-      <c r="FB63" s="8"/>
-      <c r="FC63" s="8"/>
-      <c r="FD63" s="8"/>
-      <c r="FE63" s="8"/>
-      <c r="FF63" s="8"/>
-      <c r="FG63" s="8"/>
-      <c r="FH63" s="8"/>
-      <c r="FI63" s="8"/>
-      <c r="FJ63" s="8"/>
-      <c r="FK63" s="8"/>
-      <c r="FL63" s="8"/>
-      <c r="FM63" s="8"/>
-      <c r="FN63" s="8"/>
-      <c r="FO63" s="8"/>
-      <c r="FP63" s="8"/>
-      <c r="FQ63" s="8"/>
-      <c r="FR63" s="8"/>
-      <c r="FS63" s="8"/>
-      <c r="FT63" s="8"/>
-      <c r="FU63" s="8"/>
-      <c r="FV63" s="8"/>
-      <c r="FW63" s="8"/>
-      <c r="FX63" s="8"/>
-      <c r="FY63" s="8"/>
-      <c r="FZ63" s="8"/>
-      <c r="GA63" s="8"/>
-      <c r="GB63" s="8"/>
-      <c r="GC63" s="8"/>
-      <c r="GD63" s="8"/>
-      <c r="GE63" s="8"/>
-      <c r="GF63" s="8"/>
-      <c r="GG63" s="8"/>
-      <c r="GH63" s="8"/>
-      <c r="GI63" s="8"/>
-      <c r="GJ63" s="8"/>
-      <c r="GK63" s="8"/>
-      <c r="GL63" s="8"/>
-      <c r="GM63" s="8"/>
-      <c r="GN63" s="8"/>
-      <c r="GO63" s="8"/>
-      <c r="GP63" s="8"/>
-      <c r="GQ63" s="8"/>
-      <c r="GR63" s="8"/>
-      <c r="GS63" s="8"/>
-      <c r="GT63" s="8"/>
-      <c r="GU63" s="8"/>
-      <c r="GV63" s="8"/>
-      <c r="GW63" s="8"/>
-      <c r="GX63" s="8"/>
-      <c r="GY63" s="8"/>
-      <c r="GZ63" s="8"/>
-      <c r="HA63" s="8"/>
-      <c r="HB63" s="8"/>
-      <c r="HC63" s="8"/>
-      <c r="HD63" s="8"/>
-      <c r="HE63" s="8"/>
-      <c r="HF63" s="8"/>
-      <c r="HG63" s="8"/>
-      <c r="HH63" s="8"/>
-      <c r="HI63" s="8"/>
-      <c r="HJ63" s="8"/>
-      <c r="HK63" s="8"/>
-      <c r="HL63" s="8"/>
-      <c r="HM63" s="8"/>
-      <c r="HN63" s="8"/>
-      <c r="HO63" s="8"/>
-      <c r="HP63" s="8"/>
-      <c r="HQ63" s="8"/>
-      <c r="HR63" s="8"/>
-      <c r="HS63" s="8"/>
-      <c r="HT63" s="8"/>
-      <c r="HU63" s="8"/>
-      <c r="HV63" s="8"/>
-      <c r="HW63" s="8"/>
-      <c r="HX63" s="8"/>
-      <c r="HY63" s="8"/>
-      <c r="HZ63" s="8"/>
-      <c r="IA63" s="8"/>
-      <c r="IB63" s="8"/>
-      <c r="IC63" s="8"/>
-      <c r="ID63" s="8"/>
-      <c r="IE63" s="8"/>
-      <c r="IF63" s="8"/>
-      <c r="IG63" s="8"/>
-      <c r="IH63" s="8"/>
-      <c r="II63" s="8"/>
-      <c r="IJ63" s="8"/>
-      <c r="IK63" s="8"/>
-      <c r="IL63" s="8"/>
-      <c r="IM63" s="8"/>
-      <c r="IN63" s="8"/>
-      <c r="IO63" s="8"/>
-      <c r="IP63" s="8"/>
-      <c r="IQ63" s="8"/>
-      <c r="IR63" s="8"/>
-      <c r="IS63" s="8"/>
-      <c r="IT63" s="8"/>
-      <c r="IU63" s="8"/>
-    </row>
-    <row r="64" spans="1:255" ht="12.75" customHeight="1">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="142" t="s">
+      <c r="E62" s="150"/>
+      <c r="F62" s="150"/>
+      <c r="G62" s="150"/>
+      <c r="H62" s="150"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="8"/>
+      <c r="X62" s="8"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="8"/>
+      <c r="AA62" s="8"/>
+      <c r="AB62" s="8"/>
+      <c r="AC62" s="8"/>
+      <c r="AD62" s="8"/>
+      <c r="AE62" s="8"/>
+      <c r="AF62" s="8"/>
+      <c r="AG62" s="8"/>
+      <c r="AH62" s="8"/>
+      <c r="AI62" s="8"/>
+      <c r="AJ62" s="8"/>
+      <c r="AK62" s="8"/>
+      <c r="AL62" s="8"/>
+      <c r="AM62" s="8"/>
+      <c r="AN62" s="8"/>
+      <c r="AO62" s="8"/>
+      <c r="AP62" s="8"/>
+      <c r="AQ62" s="8"/>
+      <c r="AR62" s="8"/>
+      <c r="AS62" s="8"/>
+      <c r="AT62" s="8"/>
+      <c r="AU62" s="8"/>
+      <c r="AV62" s="8"/>
+      <c r="AW62" s="8"/>
+      <c r="AX62" s="8"/>
+      <c r="AY62" s="8"/>
+      <c r="AZ62" s="8"/>
+      <c r="BA62" s="8"/>
+      <c r="BB62" s="8"/>
+      <c r="BC62" s="8"/>
+      <c r="BD62" s="8"/>
+      <c r="BE62" s="8"/>
+      <c r="BF62" s="8"/>
+      <c r="BG62" s="8"/>
+      <c r="BH62" s="8"/>
+      <c r="BI62" s="8"/>
+      <c r="BJ62" s="8"/>
+      <c r="BK62" s="8"/>
+      <c r="BL62" s="8"/>
+      <c r="BM62" s="8"/>
+      <c r="BN62" s="8"/>
+      <c r="BO62" s="8"/>
+      <c r="BP62" s="8"/>
+      <c r="BQ62" s="8"/>
+      <c r="BR62" s="8"/>
+      <c r="BS62" s="8"/>
+      <c r="BT62" s="8"/>
+      <c r="BU62" s="8"/>
+      <c r="BV62" s="8"/>
+      <c r="BW62" s="8"/>
+      <c r="BX62" s="8"/>
+      <c r="BY62" s="8"/>
+      <c r="BZ62" s="8"/>
+      <c r="CA62" s="8"/>
+      <c r="CB62" s="8"/>
+      <c r="CC62" s="8"/>
+      <c r="CD62" s="8"/>
+      <c r="CE62" s="8"/>
+      <c r="CF62" s="8"/>
+      <c r="CG62" s="8"/>
+      <c r="CH62" s="8"/>
+      <c r="CI62" s="8"/>
+      <c r="CJ62" s="8"/>
+      <c r="CK62" s="8"/>
+      <c r="CL62" s="8"/>
+      <c r="CM62" s="8"/>
+      <c r="CN62" s="8"/>
+      <c r="CO62" s="8"/>
+      <c r="CP62" s="8"/>
+      <c r="CQ62" s="8"/>
+      <c r="CR62" s="8"/>
+      <c r="CS62" s="8"/>
+      <c r="CT62" s="8"/>
+      <c r="CU62" s="8"/>
+      <c r="CV62" s="8"/>
+      <c r="CW62" s="8"/>
+      <c r="CX62" s="8"/>
+      <c r="CY62" s="8"/>
+      <c r="CZ62" s="8"/>
+      <c r="DA62" s="8"/>
+      <c r="DB62" s="8"/>
+      <c r="DC62" s="8"/>
+      <c r="DD62" s="8"/>
+      <c r="DE62" s="8"/>
+      <c r="DF62" s="8"/>
+      <c r="DG62" s="8"/>
+      <c r="DH62" s="8"/>
+      <c r="DI62" s="8"/>
+      <c r="DJ62" s="8"/>
+      <c r="DK62" s="8"/>
+      <c r="DL62" s="8"/>
+      <c r="DM62" s="8"/>
+      <c r="DN62" s="8"/>
+      <c r="DO62" s="8"/>
+      <c r="DP62" s="8"/>
+      <c r="DQ62" s="8"/>
+      <c r="DR62" s="8"/>
+      <c r="DS62" s="8"/>
+      <c r="DT62" s="8"/>
+      <c r="DU62" s="8"/>
+      <c r="DV62" s="8"/>
+      <c r="DW62" s="8"/>
+      <c r="DX62" s="8"/>
+      <c r="DY62" s="8"/>
+      <c r="DZ62" s="8"/>
+      <c r="EA62" s="8"/>
+      <c r="EB62" s="8"/>
+      <c r="EC62" s="8"/>
+      <c r="ED62" s="8"/>
+      <c r="EE62" s="8"/>
+      <c r="EF62" s="8"/>
+      <c r="EG62" s="8"/>
+      <c r="EH62" s="8"/>
+      <c r="EI62" s="8"/>
+      <c r="EJ62" s="8"/>
+      <c r="EK62" s="8"/>
+      <c r="EL62" s="8"/>
+      <c r="EM62" s="8"/>
+      <c r="EN62" s="8"/>
+      <c r="EO62" s="8"/>
+      <c r="EP62" s="8"/>
+      <c r="EQ62" s="8"/>
+      <c r="ER62" s="8"/>
+      <c r="ES62" s="8"/>
+      <c r="ET62" s="8"/>
+      <c r="EU62" s="8"/>
+      <c r="EV62" s="8"/>
+      <c r="EW62" s="8"/>
+      <c r="EX62" s="8"/>
+      <c r="EY62" s="8"/>
+      <c r="EZ62" s="8"/>
+      <c r="FA62" s="8"/>
+      <c r="FB62" s="8"/>
+      <c r="FC62" s="8"/>
+      <c r="FD62" s="8"/>
+      <c r="FE62" s="8"/>
+      <c r="FF62" s="8"/>
+      <c r="FG62" s="8"/>
+      <c r="FH62" s="8"/>
+      <c r="FI62" s="8"/>
+      <c r="FJ62" s="8"/>
+      <c r="FK62" s="8"/>
+      <c r="FL62" s="8"/>
+      <c r="FM62" s="8"/>
+      <c r="FN62" s="8"/>
+      <c r="FO62" s="8"/>
+      <c r="FP62" s="8"/>
+      <c r="FQ62" s="8"/>
+      <c r="FR62" s="8"/>
+      <c r="FS62" s="8"/>
+      <c r="FT62" s="8"/>
+      <c r="FU62" s="8"/>
+      <c r="FV62" s="8"/>
+      <c r="FW62" s="8"/>
+      <c r="FX62" s="8"/>
+      <c r="FY62" s="8"/>
+      <c r="FZ62" s="8"/>
+      <c r="GA62" s="8"/>
+      <c r="GB62" s="8"/>
+      <c r="GC62" s="8"/>
+      <c r="GD62" s="8"/>
+      <c r="GE62" s="8"/>
+      <c r="GF62" s="8"/>
+      <c r="GG62" s="8"/>
+      <c r="GH62" s="8"/>
+      <c r="GI62" s="8"/>
+      <c r="GJ62" s="8"/>
+      <c r="GK62" s="8"/>
+      <c r="GL62" s="8"/>
+      <c r="GM62" s="8"/>
+      <c r="GN62" s="8"/>
+      <c r="GO62" s="8"/>
+      <c r="GP62" s="8"/>
+      <c r="GQ62" s="8"/>
+      <c r="GR62" s="8"/>
+      <c r="GS62" s="8"/>
+      <c r="GT62" s="8"/>
+      <c r="GU62" s="8"/>
+      <c r="GV62" s="8"/>
+      <c r="GW62" s="8"/>
+      <c r="GX62" s="8"/>
+      <c r="GY62" s="8"/>
+      <c r="GZ62" s="8"/>
+      <c r="HA62" s="8"/>
+      <c r="HB62" s="8"/>
+      <c r="HC62" s="8"/>
+      <c r="HD62" s="8"/>
+      <c r="HE62" s="8"/>
+      <c r="HF62" s="8"/>
+      <c r="HG62" s="8"/>
+      <c r="HH62" s="8"/>
+      <c r="HI62" s="8"/>
+      <c r="HJ62" s="8"/>
+      <c r="HK62" s="8"/>
+      <c r="HL62" s="8"/>
+      <c r="HM62" s="8"/>
+      <c r="HN62" s="8"/>
+      <c r="HO62" s="8"/>
+      <c r="HP62" s="8"/>
+      <c r="HQ62" s="8"/>
+      <c r="HR62" s="8"/>
+      <c r="HS62" s="8"/>
+      <c r="HT62" s="8"/>
+      <c r="HU62" s="8"/>
+      <c r="HV62" s="8"/>
+      <c r="HW62" s="8"/>
+      <c r="HX62" s="8"/>
+      <c r="HY62" s="8"/>
+      <c r="HZ62" s="8"/>
+      <c r="IA62" s="8"/>
+      <c r="IB62" s="8"/>
+      <c r="IC62" s="8"/>
+      <c r="ID62" s="8"/>
+      <c r="IE62" s="8"/>
+      <c r="IF62" s="8"/>
+      <c r="IG62" s="8"/>
+      <c r="IH62" s="8"/>
+      <c r="II62" s="8"/>
+      <c r="IJ62" s="8"/>
+      <c r="IK62" s="8"/>
+      <c r="IL62" s="8"/>
+      <c r="IM62" s="8"/>
+      <c r="IN62" s="8"/>
+      <c r="IO62" s="8"/>
+      <c r="IP62" s="8"/>
+      <c r="IQ62" s="8"/>
+      <c r="IR62" s="8"/>
+      <c r="IS62" s="8"/>
+      <c r="IT62" s="8"/>
+      <c r="IU62" s="8"/>
+    </row>
+    <row r="63" spans="1:255" ht="12.75" customHeight="1">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="E64" s="143"/>
-      <c r="F64" s="154" t="s">
+      <c r="E63" s="182"/>
+      <c r="F63" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="G64" s="154"/>
-      <c r="H64" s="154"/>
+      <c r="G63" s="151"/>
+      <c r="H63" s="151"/>
+    </row>
+    <row r="64" spans="1:255">
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="152" t="s">
+        <v>41</v>
+      </c>
+      <c r="E64" s="152"/>
+      <c r="F64" s="153"/>
+      <c r="G64" s="153"/>
+      <c r="H64" s="153"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="15"/>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
-      <c r="D65" s="148" t="s">
-        <v>41</v>
-      </c>
-      <c r="E65" s="148"/>
-      <c r="F65" s="149"/>
-      <c r="G65" s="149"/>
-      <c r="H65" s="149"/>
+      <c r="D65" s="162" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="163"/>
+      <c r="F65" s="154" t="s">
+        <v>95</v>
+      </c>
+      <c r="G65" s="155"/>
+      <c r="H65" s="156"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
-      <c r="D66" s="144" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="145"/>
-      <c r="F66" s="150" t="s">
-        <v>104</v>
-      </c>
-      <c r="G66" s="151"/>
-      <c r="H66" s="152"/>
+      <c r="D66" s="162" t="s">
+        <v>59</v>
+      </c>
+      <c r="E66" s="163"/>
+      <c r="F66" s="154" t="s">
+        <v>96</v>
+      </c>
+      <c r="G66" s="155"/>
+      <c r="H66" s="156"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
-      <c r="D67" s="144" t="s">
-        <v>60</v>
-      </c>
-      <c r="E67" s="145"/>
-      <c r="F67" s="150" t="s">
-        <v>105</v>
-      </c>
-      <c r="G67" s="151"/>
-      <c r="H67" s="152"/>
+      <c r="D67" s="162" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="163"/>
+      <c r="F67" s="154" t="s">
+        <v>97</v>
+      </c>
+      <c r="G67" s="155"/>
+      <c r="H67" s="156"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
-      <c r="D68" s="144" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="145"/>
-      <c r="F68" s="150" t="s">
-        <v>106</v>
-      </c>
-      <c r="G68" s="151"/>
-      <c r="H68" s="152"/>
+      <c r="D68" s="162" t="s">
+        <v>60</v>
+      </c>
+      <c r="E68" s="163"/>
+      <c r="F68" s="154" t="s">
+        <v>98</v>
+      </c>
+      <c r="G68" s="155"/>
+      <c r="H68" s="156"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="15"/>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
-      <c r="D69" s="144" t="s">
-        <v>61</v>
-      </c>
-      <c r="E69" s="145"/>
-      <c r="F69" s="150" t="s">
-        <v>107</v>
-      </c>
-      <c r="G69" s="151"/>
-      <c r="H69" s="152"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="17"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="15"/>
@@ -4022,23 +4021,23 @@
       <c r="G71" s="24"/>
       <c r="H71" s="17"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" ht="20.25" customHeight="1">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
       <c r="D72" s="22"/>
       <c r="E72" s="22"/>
       <c r="F72" s="17"/>
-      <c r="G72" s="24"/>
+      <c r="G72" s="17"/>
       <c r="H72" s="17"/>
     </row>
     <row r="73" spans="1:8" ht="20.25" customHeight="1">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="17"/>
+      <c r="D73" s="147"/>
+      <c r="E73" s="147"/>
+      <c r="F73" s="147"/>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
     </row>
@@ -4046,9 +4045,9 @@
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
-      <c r="D74" s="175"/>
-      <c r="E74" s="175"/>
-      <c r="F74" s="175"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="17"/>
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
     </row>
@@ -4062,24 +4061,24 @@
       <c r="G75" s="17"/>
       <c r="H75" s="17"/>
     </row>
-    <row r="76" spans="1:8" ht="20.25" customHeight="1">
+    <row r="76" spans="1:8" ht="30.75" customHeight="1">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
+      <c r="D76" s="147"/>
+      <c r="E76" s="147"/>
+      <c r="F76" s="147"/>
+      <c r="G76" s="23"/>
       <c r="H76" s="17"/>
     </row>
-    <row r="77" spans="1:8" ht="30.75" customHeight="1">
+    <row r="77" spans="1:8">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
-      <c r="D77" s="175"/>
-      <c r="E77" s="175"/>
-      <c r="F77" s="175"/>
-      <c r="G77" s="23"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="17"/>
       <c r="H77" s="17"/>
     </row>
     <row r="78" spans="1:8">
@@ -4112,24 +4111,24 @@
       <c r="G80" s="17"/>
       <c r="H80" s="17"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" ht="27.75" customHeight="1">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="17"/>
+      <c r="D81" s="147"/>
+      <c r="E81" s="147"/>
+      <c r="F81" s="147"/>
+      <c r="G81" s="23"/>
       <c r="H81" s="17"/>
     </row>
-    <row r="82" spans="1:8" ht="27.75" customHeight="1">
+    <row r="82" spans="1:8">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
-      <c r="D82" s="175"/>
-      <c r="E82" s="175"/>
-      <c r="F82" s="175"/>
-      <c r="G82" s="23"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="17"/>
       <c r="H82" s="17"/>
     </row>
     <row r="83" spans="1:8">
@@ -4146,30 +4145,30 @@
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="17"/>
       <c r="G84" s="17"/>
       <c r="H84" s="17"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" s="17" customFormat="1">
       <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
       <c r="D85" s="25"/>
       <c r="E85" s="25"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-    </row>
-    <row r="86" spans="1:8" s="17" customFormat="1">
+    </row>
+    <row r="86" spans="1:8" ht="18.75" customHeight="1">
       <c r="A86" s="15"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
-    </row>
-    <row r="87" spans="1:8" ht="18.75" customHeight="1">
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+    </row>
+    <row r="87" spans="1:8" ht="13.5">
       <c r="A87" s="15"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
@@ -4179,13 +4178,13 @@
       <c r="G87" s="17"/>
       <c r="H87" s="17"/>
     </row>
-    <row r="88" spans="1:8" ht="13.5">
+    <row r="88" spans="1:8" ht="17.25" customHeight="1">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="17"/>
+      <c r="D88" s="147"/>
+      <c r="E88" s="147"/>
+      <c r="F88" s="147"/>
       <c r="G88" s="17"/>
       <c r="H88" s="17"/>
     </row>
@@ -4193,9 +4192,9 @@
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
-      <c r="D89" s="175"/>
-      <c r="E89" s="175"/>
-      <c r="F89" s="175"/>
+      <c r="D89" s="147"/>
+      <c r="E89" s="147"/>
+      <c r="F89" s="147"/>
       <c r="G89" s="17"/>
       <c r="H89" s="17"/>
     </row>
@@ -4203,38 +4202,38 @@
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
-      <c r="D90" s="175"/>
-      <c r="E90" s="175"/>
-      <c r="F90" s="175"/>
+      <c r="D90" s="147"/>
+      <c r="E90" s="147"/>
+      <c r="F90" s="147"/>
       <c r="G90" s="17"/>
       <c r="H90" s="17"/>
     </row>
-    <row r="91" spans="1:8" ht="17.25" customHeight="1">
+    <row r="91" spans="1:8" ht="23.25" customHeight="1">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
-      <c r="D91" s="175"/>
-      <c r="E91" s="175"/>
-      <c r="F91" s="175"/>
-      <c r="G91" s="17"/>
+      <c r="D91" s="147"/>
+      <c r="E91" s="147"/>
+      <c r="F91" s="147"/>
+      <c r="G91" s="23"/>
       <c r="H91" s="17"/>
     </row>
-    <row r="92" spans="1:8" ht="23.25" customHeight="1">
+    <row r="92" spans="1:8">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
-      <c r="D92" s="175"/>
-      <c r="E92" s="175"/>
-      <c r="F92" s="175"/>
-      <c r="G92" s="23"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
       <c r="H92" s="17"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" ht="13.5">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
       <c r="F93" s="17"/>
       <c r="G93" s="17"/>
       <c r="H93" s="17"/>
@@ -4253,69 +4252,69 @@
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="27"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
       <c r="F95" s="17"/>
       <c r="G95" s="17"/>
       <c r="H95" s="17"/>
     </row>
-    <row r="96" spans="1:8" ht="13.5">
-      <c r="A96" s="15"/>
-      <c r="B96" s="15"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="29"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
+    <row r="96" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="H96" s="30"/>
     </row>
     <row r="97" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="21"/>
-      <c r="E97" s="21"/>
-      <c r="H97" s="30"/>
+      <c r="A97" s="15"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
     </row>
     <row r="98" spans="1:8" ht="18.75" customHeight="1">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
       <c r="F98" s="17"/>
       <c r="G98" s="17"/>
       <c r="H98" s="17"/>
     </row>
-    <row r="99" spans="1:8" ht="18.75" customHeight="1">
+    <row r="99" spans="1:8">
       <c r="A99" s="15"/>
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="29"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31"/>
       <c r="F99" s="17"/>
       <c r="G99" s="17"/>
       <c r="H99" s="17"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" ht="16.5" customHeight="1">
       <c r="A100" s="15"/>
       <c r="B100" s="15"/>
       <c r="C100" s="15"/>
-      <c r="D100" s="31"/>
-      <c r="E100" s="31"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="32"/>
       <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
+      <c r="G100" s="23"/>
       <c r="H100" s="17"/>
     </row>
-    <row r="101" spans="1:8" ht="16.5" customHeight="1">
+    <row r="101" spans="1:8" ht="18.75" customHeight="1">
       <c r="A101" s="15"/>
       <c r="B101" s="15"/>
       <c r="C101" s="15"/>
       <c r="D101" s="32"/>
       <c r="E101" s="32"/>
       <c r="F101" s="17"/>
-      <c r="G101" s="23"/>
-      <c r="H101" s="17"/>
+      <c r="G101" s="33"/>
+      <c r="H101" s="33"/>
     </row>
     <row r="102" spans="1:8" ht="18.75" customHeight="1">
       <c r="A102" s="15"/>
@@ -4324,8 +4323,8 @@
       <c r="D102" s="32"/>
       <c r="E102" s="32"/>
       <c r="F102" s="17"/>
-      <c r="G102" s="33"/>
-      <c r="H102" s="33"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="17"/>
     </row>
     <row r="103" spans="1:8" ht="18.75" customHeight="1">
       <c r="A103" s="15"/>
@@ -4457,25 +4456,25 @@
       <c r="G115" s="23"/>
       <c r="H115" s="17"/>
     </row>
-    <row r="116" spans="1:8" ht="18.75" customHeight="1">
+    <row r="116" spans="1:8" ht="33.75" customHeight="1">
       <c r="A116" s="15"/>
       <c r="B116" s="15"/>
       <c r="C116" s="15"/>
       <c r="D116" s="32"/>
       <c r="E116" s="32"/>
       <c r="F116" s="17"/>
-      <c r="G116" s="23"/>
-      <c r="H116" s="17"/>
-    </row>
-    <row r="117" spans="1:8" ht="33.75" customHeight="1">
+      <c r="G116" s="146"/>
+      <c r="H116" s="146"/>
+    </row>
+    <row r="117" spans="1:8" ht="18.75" customHeight="1">
       <c r="A117" s="15"/>
       <c r="B117" s="15"/>
       <c r="C117" s="15"/>
       <c r="D117" s="32"/>
       <c r="E117" s="32"/>
       <c r="F117" s="17"/>
-      <c r="G117" s="186"/>
-      <c r="H117" s="186"/>
+      <c r="G117" s="23"/>
+      <c r="H117" s="17"/>
     </row>
     <row r="118" spans="1:8" ht="18.75" customHeight="1">
       <c r="A118" s="15"/>
@@ -4484,7 +4483,7 @@
       <c r="D118" s="32"/>
       <c r="E118" s="32"/>
       <c r="F118" s="17"/>
-      <c r="G118" s="23"/>
+      <c r="G118" s="35"/>
       <c r="H118" s="17"/>
     </row>
     <row r="119" spans="1:8" ht="18.75" customHeight="1">
@@ -4504,7 +4503,7 @@
       <c r="D120" s="32"/>
       <c r="E120" s="32"/>
       <c r="F120" s="17"/>
-      <c r="G120" s="35"/>
+      <c r="G120" s="36"/>
       <c r="H120" s="17"/>
     </row>
     <row r="121" spans="1:8" ht="18.75" customHeight="1">
@@ -4524,7 +4523,7 @@
       <c r="D122" s="32"/>
       <c r="E122" s="32"/>
       <c r="F122" s="17"/>
-      <c r="G122" s="36"/>
+      <c r="G122" s="17"/>
       <c r="H122" s="17"/>
     </row>
     <row r="123" spans="1:8" ht="18.75" customHeight="1">
@@ -4534,8 +4533,8 @@
       <c r="D123" s="32"/>
       <c r="E123" s="32"/>
       <c r="F123" s="17"/>
-      <c r="G123" s="17"/>
-      <c r="H123" s="17"/>
+      <c r="G123" s="37"/>
+      <c r="H123" s="23"/>
     </row>
     <row r="124" spans="1:8" ht="18.75" customHeight="1">
       <c r="A124" s="15"/>
@@ -4577,7 +4576,7 @@
       <c r="G127" s="37"/>
       <c r="H127" s="23"/>
     </row>
-    <row r="128" spans="1:8" ht="18.75" customHeight="1">
+    <row r="128" spans="1:8" ht="18" customHeight="1">
       <c r="A128" s="15"/>
       <c r="B128" s="15"/>
       <c r="C128" s="15"/>
@@ -4594,8 +4593,8 @@
       <c r="D129" s="32"/>
       <c r="E129" s="32"/>
       <c r="F129" s="17"/>
-      <c r="G129" s="37"/>
-      <c r="H129" s="23"/>
+      <c r="G129" s="36"/>
+      <c r="H129" s="17"/>
     </row>
     <row r="130" spans="1:8" ht="18" customHeight="1">
       <c r="A130" s="15"/>
@@ -4607,17 +4606,17 @@
       <c r="G130" s="36"/>
       <c r="H130" s="17"/>
     </row>
-    <row r="131" spans="1:8" ht="18" customHeight="1">
+    <row r="131" spans="1:8" ht="18.75" customHeight="1">
       <c r="A131" s="15"/>
       <c r="B131" s="15"/>
       <c r="C131" s="15"/>
       <c r="D131" s="32"/>
       <c r="E131" s="32"/>
       <c r="F131" s="17"/>
-      <c r="G131" s="36"/>
+      <c r="G131" s="17"/>
       <c r="H131" s="17"/>
     </row>
-    <row r="132" spans="1:8" ht="18.75" customHeight="1">
+    <row r="132" spans="1:8" ht="26.25" customHeight="1">
       <c r="A132" s="15"/>
       <c r="B132" s="15"/>
       <c r="C132" s="15"/>
@@ -4625,9 +4624,9 @@
       <c r="E132" s="32"/>
       <c r="F132" s="17"/>
       <c r="G132" s="17"/>
-      <c r="H132" s="17"/>
-    </row>
-    <row r="133" spans="1:8" ht="26.25" customHeight="1">
+      <c r="H132" s="18"/>
+    </row>
+    <row r="133" spans="1:8" ht="18.75" customHeight="1">
       <c r="A133" s="15"/>
       <c r="B133" s="15"/>
       <c r="C133" s="15"/>
@@ -4635,7 +4634,7 @@
       <c r="E133" s="32"/>
       <c r="F133" s="17"/>
       <c r="G133" s="17"/>
-      <c r="H133" s="18"/>
+      <c r="H133" s="17"/>
     </row>
     <row r="134" spans="1:8" ht="18.75" customHeight="1">
       <c r="A134" s="15"/>
@@ -4644,25 +4643,25 @@
       <c r="D134" s="32"/>
       <c r="E134" s="32"/>
       <c r="F134" s="17"/>
-      <c r="G134" s="17"/>
+      <c r="G134" s="36"/>
       <c r="H134" s="17"/>
     </row>
     <row r="135" spans="1:8" ht="18.75" customHeight="1">
       <c r="A135" s="15"/>
       <c r="B135" s="15"/>
       <c r="C135" s="15"/>
-      <c r="D135" s="32"/>
-      <c r="E135" s="32"/>
+      <c r="D135" s="38"/>
+      <c r="E135" s="38"/>
       <c r="F135" s="17"/>
-      <c r="G135" s="36"/>
+      <c r="G135" s="17"/>
       <c r="H135" s="17"/>
     </row>
-    <row r="136" spans="1:8" ht="18.75" customHeight="1">
+    <row r="136" spans="1:8" ht="15" customHeight="1">
       <c r="A136" s="15"/>
       <c r="B136" s="15"/>
       <c r="C136" s="15"/>
-      <c r="D136" s="38"/>
-      <c r="E136" s="38"/>
+      <c r="D136" s="29"/>
+      <c r="E136" s="29"/>
       <c r="F136" s="17"/>
       <c r="G136" s="17"/>
       <c r="H136" s="17"/>
@@ -4687,50 +4686,50 @@
       <c r="G138" s="17"/>
       <c r="H138" s="17"/>
     </row>
-    <row r="139" spans="1:8" ht="15" customHeight="1">
-      <c r="A139" s="15"/>
-      <c r="B139" s="15"/>
-      <c r="C139" s="15"/>
-      <c r="D139" s="29"/>
-      <c r="E139" s="29"/>
-      <c r="F139" s="17"/>
-      <c r="G139" s="17"/>
-      <c r="H139" s="17"/>
+    <row r="139" spans="1:8">
+      <c r="A139" s="26"/>
+      <c r="B139" s="26"/>
+      <c r="C139" s="26"/>
+      <c r="D139" s="26"/>
+      <c r="E139" s="26"/>
+      <c r="F139" s="26"/>
+      <c r="G139" s="39"/>
+      <c r="H139" s="39"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="26"/>
-      <c r="B140" s="26"/>
-      <c r="C140" s="26"/>
-      <c r="D140" s="26"/>
-      <c r="E140" s="26"/>
-      <c r="F140" s="26"/>
-      <c r="G140" s="39"/>
-      <c r="H140" s="39"/>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" s="17"/>
-      <c r="B141" s="17"/>
-      <c r="C141" s="17"/>
+      <c r="A140" s="17"/>
+      <c r="B140" s="17"/>
+      <c r="C140" s="17"/>
+      <c r="D140" s="17"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="17"/>
+      <c r="G140" s="17"/>
+      <c r="H140" s="17"/>
+    </row>
+    <row r="141" spans="1:8" ht="13.5">
+      <c r="A141" s="29"/>
+      <c r="B141" s="29"/>
+      <c r="C141" s="29"/>
       <c r="D141" s="17"/>
       <c r="E141" s="17"/>
       <c r="F141" s="17"/>
       <c r="G141" s="17"/>
       <c r="H141" s="17"/>
     </row>
-    <row r="142" spans="1:8" ht="13.5">
-      <c r="A142" s="29"/>
-      <c r="B142" s="29"/>
-      <c r="C142" s="29"/>
+    <row r="142" spans="1:8">
+      <c r="A142" s="17"/>
+      <c r="B142" s="17"/>
+      <c r="C142" s="17"/>
       <c r="D142" s="17"/>
       <c r="E142" s="17"/>
       <c r="F142" s="17"/>
       <c r="G142" s="17"/>
       <c r="H142" s="17"/>
     </row>
-    <row r="143" spans="1:8">
-      <c r="A143" s="17"/>
-      <c r="B143" s="17"/>
-      <c r="C143" s="17"/>
+    <row r="143" spans="1:8" ht="13.5">
+      <c r="A143" s="29"/>
+      <c r="B143" s="29"/>
+      <c r="C143" s="29"/>
       <c r="D143" s="17"/>
       <c r="E143" s="17"/>
       <c r="F143" s="17"/>
@@ -4738,114 +4737,114 @@
       <c r="H143" s="17"/>
     </row>
     <row r="144" spans="1:8" ht="13.5">
-      <c r="A144" s="29"/>
-      <c r="B144" s="29"/>
-      <c r="C144" s="29"/>
-      <c r="D144" s="17"/>
-      <c r="E144" s="17"/>
+      <c r="A144" s="17"/>
+      <c r="B144" s="17"/>
+      <c r="C144" s="17"/>
+      <c r="D144" s="40"/>
+      <c r="E144" s="40"/>
       <c r="F144" s="17"/>
       <c r="G144" s="17"/>
       <c r="H144" s="17"/>
     </row>
-    <row r="145" spans="1:8" ht="13.5">
+    <row r="145" spans="1:8" ht="30.75" customHeight="1">
       <c r="A145" s="17"/>
       <c r="B145" s="17"/>
       <c r="C145" s="17"/>
-      <c r="D145" s="40"/>
-      <c r="E145" s="40"/>
-      <c r="F145" s="17"/>
-      <c r="G145" s="17"/>
-      <c r="H145" s="17"/>
-    </row>
-    <row r="146" spans="1:8" ht="30.75" customHeight="1">
+      <c r="D145" s="148"/>
+      <c r="E145" s="148"/>
+      <c r="F145" s="148"/>
+      <c r="G145" s="148"/>
+      <c r="H145" s="148"/>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="17"/>
       <c r="B146" s="17"/>
       <c r="C146" s="17"/>
-      <c r="D146" s="187"/>
-      <c r="E146" s="187"/>
-      <c r="F146" s="187"/>
-      <c r="G146" s="187"/>
-      <c r="H146" s="187"/>
+      <c r="D146" s="41"/>
+      <c r="E146" s="41"/>
+      <c r="F146" s="41"/>
+      <c r="G146" s="41"/>
+      <c r="H146" s="41"/>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="17"/>
       <c r="B147" s="17"/>
       <c r="C147" s="17"/>
-      <c r="D147" s="41"/>
-      <c r="E147" s="41"/>
-      <c r="F147" s="41"/>
-      <c r="G147" s="41"/>
-      <c r="H147" s="41"/>
+      <c r="D147" s="42"/>
+      <c r="E147" s="42"/>
+      <c r="F147" s="142"/>
+      <c r="G147" s="142"/>
+      <c r="H147" s="142"/>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="17"/>
       <c r="B148" s="17"/>
       <c r="C148" s="17"/>
-      <c r="D148" s="42"/>
-      <c r="E148" s="42"/>
-      <c r="F148" s="188"/>
-      <c r="G148" s="188"/>
-      <c r="H148" s="188"/>
-    </row>
-    <row r="149" spans="1:8">
+      <c r="D148" s="43"/>
+      <c r="E148" s="43"/>
+      <c r="F148" s="41"/>
+      <c r="G148" s="41"/>
+      <c r="H148" s="41"/>
+    </row>
+    <row r="149" spans="1:8" ht="49.5" customHeight="1">
       <c r="A149" s="17"/>
       <c r="B149" s="17"/>
       <c r="C149" s="17"/>
-      <c r="D149" s="43"/>
-      <c r="E149" s="43"/>
-      <c r="F149" s="41"/>
-      <c r="G149" s="41"/>
-      <c r="H149" s="41"/>
-    </row>
-    <row r="150" spans="1:8" ht="49.5" customHeight="1">
+      <c r="D149" s="44"/>
+      <c r="E149" s="44"/>
+      <c r="F149" s="144"/>
+      <c r="G149" s="142"/>
+      <c r="H149" s="142"/>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="17"/>
       <c r="B150" s="17"/>
       <c r="C150" s="17"/>
-      <c r="D150" s="44"/>
-      <c r="E150" s="44"/>
-      <c r="F150" s="189"/>
-      <c r="G150" s="188"/>
-      <c r="H150" s="188"/>
+      <c r="D150" s="45"/>
+      <c r="E150" s="45"/>
+      <c r="F150" s="41"/>
+      <c r="G150" s="41"/>
+      <c r="H150" s="41"/>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="17"/>
       <c r="B151" s="17"/>
       <c r="C151" s="17"/>
-      <c r="D151" s="45"/>
-      <c r="E151" s="45"/>
-      <c r="F151" s="41"/>
-      <c r="G151" s="41"/>
-      <c r="H151" s="41"/>
+      <c r="D151" s="42"/>
+      <c r="E151" s="42"/>
+      <c r="F151" s="142"/>
+      <c r="G151" s="142"/>
+      <c r="H151" s="142"/>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="17"/>
       <c r="B152" s="17"/>
       <c r="C152" s="17"/>
-      <c r="D152" s="42"/>
-      <c r="E152" s="42"/>
-      <c r="F152" s="188"/>
-      <c r="G152" s="188"/>
-      <c r="H152" s="188"/>
-    </row>
-    <row r="153" spans="1:8">
+      <c r="D152" s="43"/>
+      <c r="E152" s="43"/>
+      <c r="F152" s="41"/>
+      <c r="G152" s="41"/>
+      <c r="H152" s="41"/>
+    </row>
+    <row r="153" spans="1:8" ht="78.75" customHeight="1">
       <c r="A153" s="17"/>
       <c r="B153" s="17"/>
       <c r="C153" s="17"/>
-      <c r="D153" s="43"/>
-      <c r="E153" s="43"/>
-      <c r="F153" s="41"/>
-      <c r="G153" s="41"/>
-      <c r="H153" s="41"/>
-    </row>
-    <row r="154" spans="1:8" ht="78.75" customHeight="1">
+      <c r="D153" s="44"/>
+      <c r="E153" s="44"/>
+      <c r="F153" s="144"/>
+      <c r="G153" s="142"/>
+      <c r="H153" s="142"/>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="17"/>
       <c r="B154" s="17"/>
       <c r="C154" s="17"/>
-      <c r="D154" s="44"/>
-      <c r="E154" s="44"/>
-      <c r="F154" s="189"/>
-      <c r="G154" s="188"/>
-      <c r="H154" s="188"/>
+      <c r="D154" s="43"/>
+      <c r="E154" s="43"/>
+      <c r="F154" s="41"/>
+      <c r="G154" s="41"/>
+      <c r="H154" s="41"/>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="17"/>
@@ -4861,61 +4860,61 @@
       <c r="A156" s="17"/>
       <c r="B156" s="17"/>
       <c r="C156" s="17"/>
-      <c r="D156" s="43"/>
-      <c r="E156" s="43"/>
-      <c r="F156" s="41"/>
-      <c r="G156" s="41"/>
-      <c r="H156" s="41"/>
+      <c r="D156" s="42"/>
+      <c r="E156" s="42"/>
+      <c r="F156" s="142"/>
+      <c r="G156" s="142"/>
+      <c r="H156" s="142"/>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="17"/>
       <c r="B157" s="17"/>
       <c r="C157" s="17"/>
-      <c r="D157" s="42"/>
-      <c r="E157" s="42"/>
-      <c r="F157" s="188"/>
-      <c r="G157" s="188"/>
-      <c r="H157" s="188"/>
-    </row>
-    <row r="158" spans="1:8">
+      <c r="D157" s="41"/>
+      <c r="E157" s="41"/>
+      <c r="F157" s="41"/>
+      <c r="G157" s="41"/>
+      <c r="H157" s="41"/>
+    </row>
+    <row r="158" spans="1:8" ht="58.5" customHeight="1">
       <c r="A158" s="17"/>
       <c r="B158" s="17"/>
       <c r="C158" s="17"/>
-      <c r="D158" s="41"/>
-      <c r="E158" s="41"/>
-      <c r="F158" s="41"/>
-      <c r="G158" s="41"/>
-      <c r="H158" s="41"/>
-    </row>
-    <row r="159" spans="1:8" ht="58.5" customHeight="1">
+      <c r="D158" s="44"/>
+      <c r="E158" s="44"/>
+      <c r="F158" s="144"/>
+      <c r="G158" s="142"/>
+      <c r="H158" s="142"/>
+    </row>
+    <row r="159" spans="1:8" ht="90" customHeight="1">
       <c r="A159" s="17"/>
       <c r="B159" s="17"/>
       <c r="C159" s="17"/>
       <c r="D159" s="44"/>
       <c r="E159" s="44"/>
-      <c r="F159" s="189"/>
-      <c r="G159" s="188"/>
-      <c r="H159" s="188"/>
-    </row>
-    <row r="160" spans="1:8" ht="90" customHeight="1">
+      <c r="F159" s="144"/>
+      <c r="G159" s="142"/>
+      <c r="H159" s="142"/>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="17"/>
       <c r="B160" s="17"/>
       <c r="C160" s="17"/>
       <c r="D160" s="44"/>
       <c r="E160" s="44"/>
-      <c r="F160" s="189"/>
-      <c r="G160" s="188"/>
-      <c r="H160" s="188"/>
+      <c r="F160" s="145"/>
+      <c r="G160" s="146"/>
+      <c r="H160" s="146"/>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="17"/>
       <c r="B161" s="17"/>
       <c r="C161" s="17"/>
-      <c r="D161" s="44"/>
-      <c r="E161" s="44"/>
-      <c r="F161" s="190"/>
-      <c r="G161" s="186"/>
-      <c r="H161" s="186"/>
+      <c r="D161" s="46"/>
+      <c r="E161" s="46"/>
+      <c r="F161" s="140"/>
+      <c r="G161" s="140"/>
+      <c r="H161" s="34"/>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="17"/>
@@ -4923,8 +4922,8 @@
       <c r="C162" s="17"/>
       <c r="D162" s="46"/>
       <c r="E162" s="46"/>
-      <c r="F162" s="191"/>
-      <c r="G162" s="191"/>
+      <c r="F162" s="140"/>
+      <c r="G162" s="140"/>
       <c r="H162" s="34"/>
     </row>
     <row r="163" spans="1:8">
@@ -4933,8 +4932,8 @@
       <c r="C163" s="17"/>
       <c r="D163" s="46"/>
       <c r="E163" s="46"/>
-      <c r="F163" s="191"/>
-      <c r="G163" s="191"/>
+      <c r="F163" s="140"/>
+      <c r="G163" s="140"/>
       <c r="H163" s="34"/>
     </row>
     <row r="164" spans="1:8">
@@ -4943,8 +4942,8 @@
       <c r="C164" s="17"/>
       <c r="D164" s="46"/>
       <c r="E164" s="46"/>
-      <c r="F164" s="191"/>
-      <c r="G164" s="191"/>
+      <c r="F164" s="140"/>
+      <c r="G164" s="140"/>
       <c r="H164" s="34"/>
     </row>
     <row r="165" spans="1:8">
@@ -4953,8 +4952,8 @@
       <c r="C165" s="17"/>
       <c r="D165" s="46"/>
       <c r="E165" s="46"/>
-      <c r="F165" s="191"/>
-      <c r="G165" s="191"/>
+      <c r="F165" s="140"/>
+      <c r="G165" s="140"/>
       <c r="H165" s="34"/>
     </row>
     <row r="166" spans="1:8">
@@ -4963,8 +4962,8 @@
       <c r="C166" s="17"/>
       <c r="D166" s="46"/>
       <c r="E166" s="46"/>
-      <c r="F166" s="191"/>
-      <c r="G166" s="191"/>
+      <c r="F166" s="140"/>
+      <c r="G166" s="140"/>
       <c r="H166" s="34"/>
     </row>
     <row r="167" spans="1:8">
@@ -4973,9 +4972,9 @@
       <c r="C167" s="17"/>
       <c r="D167" s="46"/>
       <c r="E167" s="46"/>
-      <c r="F167" s="191"/>
-      <c r="G167" s="191"/>
-      <c r="H167" s="34"/>
+      <c r="F167" s="140"/>
+      <c r="G167" s="140"/>
+      <c r="H167" s="48"/>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="17"/>
@@ -4983,8 +4982,8 @@
       <c r="C168" s="17"/>
       <c r="D168" s="46"/>
       <c r="E168" s="46"/>
-      <c r="F168" s="191"/>
-      <c r="G168" s="191"/>
+      <c r="F168" s="140"/>
+      <c r="G168" s="140"/>
       <c r="H168" s="48"/>
     </row>
     <row r="169" spans="1:8">
@@ -4993,8 +4992,8 @@
       <c r="C169" s="17"/>
       <c r="D169" s="46"/>
       <c r="E169" s="46"/>
-      <c r="F169" s="191"/>
-      <c r="G169" s="191"/>
+      <c r="F169" s="140"/>
+      <c r="G169" s="140"/>
       <c r="H169" s="48"/>
     </row>
     <row r="170" spans="1:8">
@@ -5003,44 +5002,44 @@
       <c r="C170" s="17"/>
       <c r="D170" s="46"/>
       <c r="E170" s="46"/>
-      <c r="F170" s="191"/>
-      <c r="G170" s="191"/>
+      <c r="F170" s="140"/>
+      <c r="G170" s="140"/>
       <c r="H170" s="48"/>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" ht="26.25" customHeight="1">
       <c r="A171" s="17"/>
       <c r="B171" s="17"/>
       <c r="C171" s="17"/>
       <c r="D171" s="46"/>
       <c r="E171" s="46"/>
-      <c r="F171" s="191"/>
-      <c r="G171" s="191"/>
-      <c r="H171" s="48"/>
-    </row>
-    <row r="172" spans="1:8" ht="26.25" customHeight="1">
+      <c r="F171" s="143"/>
+      <c r="G171" s="143"/>
+      <c r="H171" s="143"/>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="17"/>
       <c r="B172" s="17"/>
       <c r="C172" s="17"/>
-      <c r="D172" s="46"/>
-      <c r="E172" s="46"/>
-      <c r="F172" s="192"/>
-      <c r="G172" s="192"/>
-      <c r="H172" s="192"/>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="A173" s="17"/>
-      <c r="B173" s="17"/>
-      <c r="C173" s="17"/>
+      <c r="D172" s="17"/>
+      <c r="E172" s="17"/>
+      <c r="F172" s="49"/>
+      <c r="G172" s="17"/>
+      <c r="H172" s="17"/>
+    </row>
+    <row r="173" spans="1:8" ht="13.5">
+      <c r="A173" s="29"/>
+      <c r="B173" s="29"/>
+      <c r="C173" s="29"/>
       <c r="D173" s="17"/>
       <c r="E173" s="17"/>
-      <c r="F173" s="49"/>
+      <c r="F173" s="17"/>
       <c r="G173" s="17"/>
       <c r="H173" s="17"/>
     </row>
-    <row r="174" spans="1:8" ht="13.5">
-      <c r="A174" s="29"/>
-      <c r="B174" s="29"/>
-      <c r="C174" s="29"/>
+    <row r="174" spans="1:8">
+      <c r="A174" s="17"/>
+      <c r="B174" s="17"/>
+      <c r="C174" s="17"/>
       <c r="D174" s="17"/>
       <c r="E174" s="17"/>
       <c r="F174" s="17"/>
@@ -5048,9 +5047,9 @@
       <c r="H174" s="17"/>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="17"/>
-      <c r="B175" s="17"/>
-      <c r="C175" s="17"/>
+      <c r="A175" s="44"/>
+      <c r="B175" s="44"/>
+      <c r="C175" s="44"/>
       <c r="D175" s="17"/>
       <c r="E175" s="17"/>
       <c r="F175" s="17"/>
@@ -5078,12 +5077,12 @@
       <c r="H177" s="17"/>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="44"/>
-      <c r="B178" s="44"/>
-      <c r="C178" s="44"/>
-      <c r="D178" s="17"/>
-      <c r="E178" s="17"/>
-      <c r="F178" s="17"/>
+      <c r="A178" s="17"/>
+      <c r="B178" s="17"/>
+      <c r="C178" s="17"/>
+      <c r="D178" s="140"/>
+      <c r="E178" s="140"/>
+      <c r="F178" s="140"/>
       <c r="G178" s="17"/>
       <c r="H178" s="17"/>
     </row>
@@ -5091,9 +5090,9 @@
       <c r="A179" s="17"/>
       <c r="B179" s="17"/>
       <c r="C179" s="17"/>
-      <c r="D179" s="191"/>
-      <c r="E179" s="191"/>
-      <c r="F179" s="191"/>
+      <c r="D179" s="140"/>
+      <c r="E179" s="140"/>
+      <c r="F179" s="140"/>
       <c r="G179" s="17"/>
       <c r="H179" s="17"/>
     </row>
@@ -5101,9 +5100,9 @@
       <c r="A180" s="17"/>
       <c r="B180" s="17"/>
       <c r="C180" s="17"/>
-      <c r="D180" s="191"/>
-      <c r="E180" s="191"/>
-      <c r="F180" s="191"/>
+      <c r="D180" s="140"/>
+      <c r="E180" s="140"/>
+      <c r="F180" s="140"/>
       <c r="G180" s="17"/>
       <c r="H180" s="17"/>
     </row>
@@ -5111,9 +5110,9 @@
       <c r="A181" s="17"/>
       <c r="B181" s="17"/>
       <c r="C181" s="17"/>
-      <c r="D181" s="191"/>
-      <c r="E181" s="191"/>
-      <c r="F181" s="191"/>
+      <c r="D181" s="140"/>
+      <c r="E181" s="140"/>
+      <c r="F181" s="140"/>
       <c r="G181" s="17"/>
       <c r="H181" s="17"/>
     </row>
@@ -5121,9 +5120,9 @@
       <c r="A182" s="17"/>
       <c r="B182" s="17"/>
       <c r="C182" s="17"/>
-      <c r="D182" s="191"/>
-      <c r="E182" s="191"/>
-      <c r="F182" s="191"/>
+      <c r="D182" s="140"/>
+      <c r="E182" s="140"/>
+      <c r="F182" s="140"/>
       <c r="G182" s="17"/>
       <c r="H182" s="17"/>
     </row>
@@ -5131,9 +5130,9 @@
       <c r="A183" s="17"/>
       <c r="B183" s="17"/>
       <c r="C183" s="17"/>
-      <c r="D183" s="191"/>
-      <c r="E183" s="191"/>
-      <c r="F183" s="191"/>
+      <c r="D183" s="140"/>
+      <c r="E183" s="140"/>
+      <c r="F183" s="140"/>
       <c r="G183" s="17"/>
       <c r="H183" s="17"/>
     </row>
@@ -5141,9 +5140,9 @@
       <c r="A184" s="17"/>
       <c r="B184" s="17"/>
       <c r="C184" s="17"/>
-      <c r="D184" s="191"/>
-      <c r="E184" s="191"/>
-      <c r="F184" s="191"/>
+      <c r="D184" s="140"/>
+      <c r="E184" s="140"/>
+      <c r="F184" s="140"/>
       <c r="G184" s="17"/>
       <c r="H184" s="17"/>
     </row>
@@ -5151,9 +5150,9 @@
       <c r="A185" s="17"/>
       <c r="B185" s="17"/>
       <c r="C185" s="17"/>
-      <c r="D185" s="191"/>
-      <c r="E185" s="191"/>
-      <c r="F185" s="191"/>
+      <c r="D185" s="140"/>
+      <c r="E185" s="140"/>
+      <c r="F185" s="140"/>
       <c r="G185" s="17"/>
       <c r="H185" s="17"/>
     </row>
@@ -5161,9 +5160,9 @@
       <c r="A186" s="17"/>
       <c r="B186" s="17"/>
       <c r="C186" s="17"/>
-      <c r="D186" s="191"/>
-      <c r="E186" s="191"/>
-      <c r="F186" s="191"/>
+      <c r="D186" s="140"/>
+      <c r="E186" s="140"/>
+      <c r="F186" s="140"/>
       <c r="G186" s="17"/>
       <c r="H186" s="17"/>
     </row>
@@ -5171,9 +5170,9 @@
       <c r="A187" s="17"/>
       <c r="B187" s="17"/>
       <c r="C187" s="17"/>
-      <c r="D187" s="191"/>
-      <c r="E187" s="191"/>
-      <c r="F187" s="191"/>
+      <c r="D187" s="140"/>
+      <c r="E187" s="140"/>
+      <c r="F187" s="140"/>
       <c r="G187" s="17"/>
       <c r="H187" s="17"/>
     </row>
@@ -5181,9 +5180,9 @@
       <c r="A188" s="17"/>
       <c r="B188" s="17"/>
       <c r="C188" s="17"/>
-      <c r="D188" s="191"/>
-      <c r="E188" s="191"/>
-      <c r="F188" s="191"/>
+      <c r="D188" s="140"/>
+      <c r="E188" s="140"/>
+      <c r="F188" s="140"/>
       <c r="G188" s="17"/>
       <c r="H188" s="17"/>
     </row>
@@ -5191,213 +5190,134 @@
       <c r="A189" s="17"/>
       <c r="B189" s="17"/>
       <c r="C189" s="17"/>
-      <c r="D189" s="191"/>
-      <c r="E189" s="191"/>
-      <c r="F189" s="191"/>
+      <c r="D189" s="140"/>
+      <c r="E189" s="140"/>
+      <c r="F189" s="140"/>
       <c r="G189" s="17"/>
       <c r="H189" s="17"/>
     </row>
     <row r="190" spans="1:8">
-      <c r="A190" s="17"/>
-      <c r="B190" s="17"/>
-      <c r="C190" s="17"/>
-      <c r="D190" s="191"/>
-      <c r="E190" s="191"/>
-      <c r="F190" s="191"/>
+      <c r="A190" s="44"/>
+      <c r="B190" s="44"/>
+      <c r="C190" s="44"/>
+      <c r="D190" s="17"/>
+      <c r="E190" s="17"/>
+      <c r="F190" s="47"/>
       <c r="G190" s="17"/>
       <c r="H190" s="17"/>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" ht="15" customHeight="1">
       <c r="A191" s="44"/>
       <c r="B191" s="44"/>
       <c r="C191" s="44"/>
-      <c r="D191" s="17"/>
-      <c r="E191" s="17"/>
-      <c r="F191" s="47"/>
-      <c r="G191" s="17"/>
-      <c r="H191" s="17"/>
-    </row>
-    <row r="192" spans="1:8" ht="15" customHeight="1">
+      <c r="D191" s="142"/>
+      <c r="E191" s="142"/>
+      <c r="F191" s="142"/>
+      <c r="G191" s="142"/>
+      <c r="H191" s="142"/>
+    </row>
+    <row r="192" spans="1:8" ht="32.25" customHeight="1">
       <c r="A192" s="44"/>
       <c r="B192" s="44"/>
       <c r="C192" s="44"/>
-      <c r="D192" s="188"/>
-      <c r="E192" s="188"/>
-      <c r="F192" s="188"/>
-      <c r="G192" s="188"/>
-      <c r="H192" s="188"/>
-    </row>
-    <row r="193" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A193" s="44"/>
-      <c r="B193" s="44"/>
-      <c r="C193" s="44"/>
-      <c r="D193" s="188"/>
-      <c r="E193" s="188"/>
-      <c r="F193" s="188"/>
-      <c r="G193" s="188"/>
-      <c r="H193" s="188"/>
-    </row>
-    <row r="194" spans="1:8">
-      <c r="A194" s="17"/>
-      <c r="B194" s="17"/>
-      <c r="C194" s="17"/>
+      <c r="D192" s="142"/>
+      <c r="E192" s="142"/>
+      <c r="F192" s="142"/>
+      <c r="G192" s="142"/>
+      <c r="H192" s="142"/>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="17"/>
+      <c r="B193" s="17"/>
+      <c r="C193" s="17"/>
+      <c r="D193" s="17"/>
+      <c r="E193" s="17"/>
+      <c r="F193" s="17"/>
+      <c r="G193" s="17"/>
+      <c r="H193" s="17"/>
+    </row>
+    <row r="194" spans="1:8" ht="13.5">
+      <c r="A194" s="29"/>
+      <c r="B194" s="29"/>
+      <c r="C194" s="29"/>
       <c r="D194" s="17"/>
       <c r="E194" s="17"/>
       <c r="F194" s="17"/>
       <c r="G194" s="17"/>
       <c r="H194" s="17"/>
     </row>
-    <row r="195" spans="1:8" ht="13.5">
-      <c r="A195" s="29"/>
-      <c r="B195" s="29"/>
-      <c r="C195" s="29"/>
+    <row r="195" spans="1:8">
+      <c r="A195" s="17"/>
+      <c r="B195" s="17"/>
+      <c r="C195" s="17"/>
       <c r="D195" s="17"/>
       <c r="E195" s="17"/>
       <c r="F195" s="17"/>
       <c r="G195" s="17"/>
       <c r="H195" s="17"/>
     </row>
-    <row r="196" spans="1:8">
-      <c r="A196" s="17"/>
-      <c r="B196" s="17"/>
-      <c r="C196" s="17"/>
-      <c r="D196" s="17"/>
-      <c r="E196" s="17"/>
-      <c r="F196" s="17"/>
-      <c r="G196" s="17"/>
-      <c r="H196" s="17"/>
-    </row>
-    <row r="197" spans="1:8" ht="32.25" customHeight="1">
+    <row r="196" spans="1:8" ht="32.25" customHeight="1">
+      <c r="A196" s="44"/>
+      <c r="B196" s="44"/>
+      <c r="C196" s="44"/>
+      <c r="D196" s="141"/>
+      <c r="E196" s="141"/>
+      <c r="F196" s="141"/>
+      <c r="G196" s="141"/>
+      <c r="H196" s="141"/>
+    </row>
+    <row r="197" spans="1:8" ht="17.25" customHeight="1">
       <c r="A197" s="44"/>
       <c r="B197" s="44"/>
       <c r="C197" s="44"/>
-      <c r="D197" s="193"/>
-      <c r="E197" s="193"/>
-      <c r="F197" s="193"/>
-      <c r="G197" s="193"/>
-      <c r="H197" s="193"/>
-    </row>
-    <row r="198" spans="1:8" ht="17.25" customHeight="1">
+      <c r="D197" s="141"/>
+      <c r="E197" s="141"/>
+      <c r="F197" s="141"/>
+      <c r="G197" s="141"/>
+      <c r="H197" s="141"/>
+    </row>
+    <row r="198" spans="1:8" ht="18" customHeight="1">
       <c r="A198" s="44"/>
       <c r="B198" s="44"/>
       <c r="C198" s="44"/>
-      <c r="D198" s="193"/>
-      <c r="E198" s="193"/>
-      <c r="F198" s="193"/>
-      <c r="G198" s="193"/>
-      <c r="H198" s="193"/>
-    </row>
-    <row r="199" spans="1:8" ht="18" customHeight="1">
+      <c r="D198" s="141"/>
+      <c r="E198" s="141"/>
+      <c r="F198" s="141"/>
+      <c r="G198" s="141"/>
+      <c r="H198" s="141"/>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" s="44"/>
       <c r="B199" s="44"/>
       <c r="C199" s="44"/>
-      <c r="D199" s="193"/>
-      <c r="E199" s="193"/>
-      <c r="F199" s="193"/>
-      <c r="G199" s="193"/>
-      <c r="H199" s="193"/>
-    </row>
-    <row r="200" spans="1:8">
-      <c r="A200" s="44"/>
-      <c r="B200" s="44"/>
-      <c r="C200" s="44"/>
-      <c r="D200" s="193"/>
-      <c r="E200" s="193"/>
-      <c r="F200" s="193"/>
-      <c r="G200" s="193"/>
-      <c r="H200" s="193"/>
+      <c r="D199" s="141"/>
+      <c r="E199" s="141"/>
+      <c r="F199" s="141"/>
+      <c r="G199" s="141"/>
+      <c r="H199" s="141"/>
     </row>
   </sheetData>
-  <mergeCells count="134">
-    <mergeCell ref="D181:F181"/>
-    <mergeCell ref="D182:F182"/>
-    <mergeCell ref="D199:H199"/>
-    <mergeCell ref="D200:H200"/>
-    <mergeCell ref="D189:F189"/>
-    <mergeCell ref="D190:F190"/>
-    <mergeCell ref="D192:H192"/>
-    <mergeCell ref="D193:H193"/>
-    <mergeCell ref="D183:F183"/>
-    <mergeCell ref="D184:F184"/>
-    <mergeCell ref="D197:H197"/>
-    <mergeCell ref="D198:H198"/>
-    <mergeCell ref="D185:F185"/>
-    <mergeCell ref="D186:F186"/>
-    <mergeCell ref="D187:F187"/>
-    <mergeCell ref="D188:F188"/>
-    <mergeCell ref="F171:G171"/>
-    <mergeCell ref="F172:H172"/>
-    <mergeCell ref="D179:F179"/>
-    <mergeCell ref="D180:F180"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="F167:G167"/>
-    <mergeCell ref="F168:G168"/>
-    <mergeCell ref="F169:G169"/>
-    <mergeCell ref="F170:G170"/>
-    <mergeCell ref="F152:H152"/>
-    <mergeCell ref="F154:H154"/>
-    <mergeCell ref="F157:H157"/>
-    <mergeCell ref="F159:H159"/>
-    <mergeCell ref="F160:H160"/>
-    <mergeCell ref="F161:H161"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="F163:G163"/>
-    <mergeCell ref="F164:G164"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="D146:H146"/>
-    <mergeCell ref="F148:H148"/>
-    <mergeCell ref="F150:H150"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="D65:H65"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
+  <mergeCells count="132">
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="D47:H47"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
@@ -5420,32 +5340,99 @@
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="F23:H23"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="D64:H64"/>
     <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="D57:H57"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="D145:H145"/>
+    <mergeCell ref="F147:H147"/>
+    <mergeCell ref="F149:H149"/>
+    <mergeCell ref="F151:H151"/>
+    <mergeCell ref="F153:H153"/>
+    <mergeCell ref="F156:H156"/>
+    <mergeCell ref="F158:H158"/>
+    <mergeCell ref="F159:H159"/>
+    <mergeCell ref="F160:H160"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="F163:G163"/>
+    <mergeCell ref="F170:G170"/>
+    <mergeCell ref="F171:H171"/>
+    <mergeCell ref="D178:F178"/>
+    <mergeCell ref="D179:F179"/>
+    <mergeCell ref="F164:G164"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="F167:G167"/>
+    <mergeCell ref="F168:G168"/>
+    <mergeCell ref="F169:G169"/>
+    <mergeCell ref="D180:F180"/>
+    <mergeCell ref="D181:F181"/>
+    <mergeCell ref="D198:H198"/>
+    <mergeCell ref="D199:H199"/>
+    <mergeCell ref="D188:F188"/>
+    <mergeCell ref="D189:F189"/>
+    <mergeCell ref="D191:H191"/>
+    <mergeCell ref="D192:H192"/>
+    <mergeCell ref="D182:F182"/>
+    <mergeCell ref="D183:F183"/>
+    <mergeCell ref="D196:H196"/>
+    <mergeCell ref="D197:H197"/>
+    <mergeCell ref="D184:F184"/>
+    <mergeCell ref="D185:F185"/>
+    <mergeCell ref="D186:F186"/>
+    <mergeCell ref="D187:F187"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D85:E86">
+  <conditionalFormatting sqref="D84:E85">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Si"</formula>
     </cfRule>
@@ -5460,7 +5447,7 @@
   <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="44" max="16383" man="1"/>
+    <brk id="43" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -5471,8 +5458,8 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5480,7 +5467,7 @@
     <col min="1" max="1" width="3.28515625" style="60" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" style="59" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="59" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" style="59" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="59" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="59" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="59" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" style="60" customWidth="1"/>
@@ -5499,10 +5486,10 @@
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
       <c r="B2" s="86"/>
-      <c r="C2" s="194" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="195"/>
+      <c r="C2" s="195" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="196"/>
       <c r="E2" s="60"/>
       <c r="F2" s="60"/>
     </row>
@@ -5515,20 +5502,20 @@
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1">
       <c r="B4" s="87" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="196" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="197"/>
+        <v>160</v>
+      </c>
+      <c r="C4" s="197" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="198"/>
     </row>
     <row r="5" spans="1:10" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="87" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="198" t="s">
-        <v>123</v>
+        <v>84</v>
+      </c>
+      <c r="C5" s="234" t="s">
+        <v>176</v>
       </c>
       <c r="D5" s="199"/>
       <c r="E5" s="71"/>
@@ -5546,10 +5533,10 @@
         <v>8</v>
       </c>
       <c r="C7" s="119" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="D7" s="119" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="119" t="s">
         <v>4</v>
@@ -5558,62 +5545,62 @@
         <v>3</v>
       </c>
       <c r="G7" s="119" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H7" s="119" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I7" s="119" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J7" s="120" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="112" customFormat="1" ht="45" customHeight="1">
       <c r="A8" s="112" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B8" s="107" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C8" s="113" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D8" s="100" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E8" s="114" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F8" s="114" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G8" s="115">
         <v>42301</v>
       </c>
       <c r="H8" s="116" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="I8" s="117" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="J8" s="126" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="112" customFormat="1" ht="45" customHeight="1">
       <c r="B9" s="108" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C9" s="113" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D9" s="101" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E9" s="114" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F9" s="114" t="s">
         <v>17</v>
@@ -5622,27 +5609,27 @@
         <v>42301</v>
       </c>
       <c r="H9" s="116" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="I9" s="117" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="J9" s="126" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="112" customFormat="1" ht="45" customHeight="1">
       <c r="B10" s="108" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C10" s="113" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D10" s="102" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E10" s="114" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F10" s="114" t="s">
         <v>17</v>
@@ -5651,27 +5638,27 @@
         <v>42301</v>
       </c>
       <c r="H10" s="116" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="I10" s="117" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="J10" s="126" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="112" customFormat="1" ht="45" customHeight="1">
       <c r="B11" s="108" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C11" s="113" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D11" s="102" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E11" s="114" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F11" s="114" t="s">
         <v>17</v>
@@ -5680,27 +5667,27 @@
         <v>42301</v>
       </c>
       <c r="H11" s="116" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="I11" s="117" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="J11" s="126" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="112" customFormat="1" ht="45" customHeight="1">
       <c r="B12" s="108" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C12" s="113" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D12" s="103" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E12" s="114" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F12" s="114" t="s">
         <v>17</v>
@@ -5709,27 +5696,27 @@
         <v>42301</v>
       </c>
       <c r="H12" s="116" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="I12" s="117" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="J12" s="126" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="112" customFormat="1" ht="45" customHeight="1">
       <c r="B13" s="108" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C13" s="113" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D13" s="102" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E13" s="114" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F13" s="114" t="s">
         <v>17</v>
@@ -5738,27 +5725,27 @@
         <v>42301</v>
       </c>
       <c r="H13" s="116" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="I13" s="117" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="J13" s="126" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="112" customFormat="1" ht="45" customHeight="1">
       <c r="B14" s="108" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C14" s="113" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D14" s="102" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E14" s="114" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F14" s="114" t="s">
         <v>17</v>
@@ -5767,27 +5754,27 @@
         <v>42301</v>
       </c>
       <c r="H14" s="116" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="I14" s="117" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="J14" s="126" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="112" customFormat="1" ht="45" customHeight="1">
       <c r="B15" s="108" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C15" s="113" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D15" s="103" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E15" s="114" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F15" s="114" t="s">
         <v>17</v>
@@ -5796,27 +5783,27 @@
         <v>42301</v>
       </c>
       <c r="H15" s="116" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="I15" s="117" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="J15" s="126" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="112" customFormat="1" ht="45" customHeight="1">
       <c r="B16" s="107" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C16" s="113" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D16" s="104" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E16" s="114" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F16" s="114" t="s">
         <v>17</v>
@@ -5825,27 +5812,27 @@
         <v>42301</v>
       </c>
       <c r="H16" s="116" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="I16" s="117" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="J16" s="126" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="2:10" s="112" customFormat="1" ht="45" customHeight="1">
       <c r="B17" s="108" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C17" s="113" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D17" s="102" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E17" s="114" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F17" s="114" t="s">
         <v>17</v>
@@ -5854,27 +5841,27 @@
         <v>42301</v>
       </c>
       <c r="H17" s="116" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="I17" s="117" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="J17" s="126" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="2:10" s="112" customFormat="1" ht="45" customHeight="1">
       <c r="B18" s="108" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C18" s="113" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D18" s="102" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E18" s="114" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F18" s="114" t="s">
         <v>17</v>
@@ -5883,27 +5870,27 @@
         <v>42301</v>
       </c>
       <c r="H18" s="116" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="I18" s="117" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="J18" s="126" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="2:10" s="112" customFormat="1" ht="45" customHeight="1">
       <c r="B19" s="108" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C19" s="113" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D19" s="102" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E19" s="114" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F19" s="114" t="s">
         <v>17</v>
@@ -5912,27 +5899,27 @@
         <v>42301</v>
       </c>
       <c r="H19" s="116" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="I19" s="117" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="J19" s="126" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="2:10" s="112" customFormat="1" ht="45" customHeight="1">
       <c r="B20" s="107" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C20" s="113" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D20" s="104" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E20" s="114" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F20" s="114" t="s">
         <v>17</v>
@@ -5941,27 +5928,27 @@
         <v>42301</v>
       </c>
       <c r="H20" s="116" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="I20" s="117" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="J20" s="126" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="2:10" s="112" customFormat="1" ht="45" customHeight="1">
       <c r="B21" s="108" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C21" s="113" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D21" s="103" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E21" s="114" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F21" s="114" t="s">
         <v>17</v>
@@ -5970,27 +5957,27 @@
         <v>42301</v>
       </c>
       <c r="H21" s="116" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="I21" s="117" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="J21" s="126" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="2:10" s="112" customFormat="1" ht="45" customHeight="1">
       <c r="B22" s="107" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C22" s="113" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D22" s="104" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E22" s="114" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F22" s="114" t="s">
         <v>17</v>
@@ -5999,27 +5986,27 @@
         <v>42301</v>
       </c>
       <c r="H22" s="116" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="I22" s="117" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="J22" s="126" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="2:10" s="112" customFormat="1" ht="45" customHeight="1">
       <c r="B23" s="108" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C23" s="113" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D23" s="102" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E23" s="114" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F23" s="114" t="s">
         <v>17</v>
@@ -6028,27 +6015,27 @@
         <v>42301</v>
       </c>
       <c r="H23" s="116" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="I23" s="117" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="J23" s="126" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="2:10" s="112" customFormat="1" ht="45" customHeight="1">
       <c r="B24" s="108" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C24" s="113" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D24" s="102" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E24" s="114" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F24" s="114" t="s">
         <v>17</v>
@@ -6057,27 +6044,27 @@
         <v>42301</v>
       </c>
       <c r="H24" s="116" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="I24" s="117" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="J24" s="126" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="2:10" s="112" customFormat="1" ht="45" customHeight="1">
       <c r="B25" s="108" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C25" s="113" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D25" s="105" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="E25" s="114" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F25" s="114" t="s">
         <v>17</v>
@@ -6086,27 +6073,27 @@
         <v>42301</v>
       </c>
       <c r="H25" s="116" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="I25" s="117" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="J25" s="126" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="2:10" s="112" customFormat="1" ht="45" customHeight="1" thickBot="1">
       <c r="B26" s="109" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C26" s="121" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D26" s="106" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="E26" s="122" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F26" s="122" t="s">
         <v>17</v>
@@ -6115,13 +6102,13 @@
         <v>42301</v>
       </c>
       <c r="H26" s="124" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="I26" s="125" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="J26" s="127" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="2:10">
@@ -6149,7 +6136,7 @@
   <pageMargins left="0.52" right="0.52" top="1.18" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;LRev. 1.0&amp;CFecha Efectiva: 16/06/08&amp;RPág  &amp;P de &amp;N</oddFooter>
+    <oddFooter>&amp;LRev. 1.0&amp;CFecha Efectiva: 16/06/08&amp;RPág.  &amp;P de &amp;N</oddFooter>
   </headerFooter>
   <cellWatches>
     <cellWatch r="F9"/>
@@ -6164,7 +6151,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -6186,11 +6173,11 @@
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1">
       <c r="B2" s="88"/>
-      <c r="C2" s="194" t="s">
+      <c r="C2" s="195" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="203"/>
-      <c r="E2" s="195"/>
+      <c r="E2" s="196"/>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="60"/>
@@ -6200,7 +6187,7 @@
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1">
       <c r="B4" s="89" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C4" s="202" t="str">
         <f>IF(NOT(ISBLANK('Requerimientos de Usuario'!C4)),'Requerimientos de Usuario'!C4," - ")</f>
@@ -6212,11 +6199,11 @@
     <row r="5" spans="1:5" s="63" customFormat="1">
       <c r="A5" s="6"/>
       <c r="B5" s="89" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C5" s="202" t="str">
         <f>IF(NOT(ISBLANK('Requerimientos de Usuario'!C5)),'Requerimientos de Usuario'!C5," - ")</f>
-        <v>Manuel Saenz Tarazona (MST E.I.R.L.)</v>
+        <v>Manuel Sáenz Tarazona (MST E.I.R.L.)</v>
       </c>
       <c r="D5" s="202"/>
       <c r="E5" s="202"/>
@@ -6229,11 +6216,11 @@
     </row>
     <row r="7" spans="1:5" ht="25.5" customHeight="1">
       <c r="B7" s="206" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="207"/>
       <c r="D7" s="65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="65" t="s">
         <v>22</v>
@@ -6245,7 +6232,7 @@
       </c>
       <c r="C8" s="201"/>
       <c r="D8" s="92" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="E8" s="91">
         <v>42287</v>
@@ -6356,7 +6343,7 @@
     </row>
     <row r="2" spans="2:3" ht="18">
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2"/>
     </row>
@@ -6374,34 +6361,34 @@
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="72" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="72" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="57" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="57" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -6439,7 +6426,7 @@
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B31" sqref="B31:E31"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -6455,60 +6442,60 @@
   <sheetData>
     <row r="2" spans="2:6" customFormat="1" ht="47.25" customHeight="1">
       <c r="B2" s="96"/>
-      <c r="C2" s="226" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="228"/>
+      <c r="C2" s="208" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="210"/>
     </row>
     <row r="3" spans="2:6" ht="13.5" thickBot="1"/>
     <row r="4" spans="2:6" s="3" customFormat="1">
-      <c r="B4" s="229" t="s">
+      <c r="B4" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="230"/>
+      <c r="C4" s="212"/>
       <c r="D4" s="128" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="128" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="63.75">
-      <c r="B5" s="231" t="s">
+      <c r="B5" s="213" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="232"/>
+      <c r="C5" s="214"/>
       <c r="D5" s="94" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="134" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="130"/>
     </row>
     <row r="6" spans="2:6" ht="25.5">
-      <c r="B6" s="231" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="232"/>
+      <c r="B6" s="213" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="214"/>
       <c r="D6" s="93" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="E6" s="97" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" s="130"/>
     </row>
     <row r="7" spans="2:6" ht="51">
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="217" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="217"/>
+      <c r="C7" s="218"/>
       <c r="D7" s="93" t="s">
         <v>15</v>
       </c>
@@ -6518,10 +6505,10 @@
       <c r="F7" s="130"/>
     </row>
     <row r="8" spans="2:6" ht="178.5">
-      <c r="B8" s="216" t="s">
+      <c r="B8" s="217" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="217"/>
+      <c r="C8" s="218"/>
       <c r="D8" s="93" t="s">
         <v>31</v>
       </c>
@@ -6531,12 +6518,12 @@
       <c r="F8" s="130"/>
     </row>
     <row r="9" spans="2:6" ht="38.25">
-      <c r="B9" s="216" t="s">
+      <c r="B9" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="217"/>
+      <c r="C9" s="218"/>
       <c r="D9" s="93" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E9" s="135" t="s">
         <v>14</v>
@@ -6544,12 +6531,12 @@
       <c r="F9" s="130"/>
     </row>
     <row r="10" spans="2:6" ht="25.5">
-      <c r="B10" s="216" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="217"/>
+      <c r="B10" s="217" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="218"/>
       <c r="D10" s="93" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E10" s="135" t="s">
         <v>12</v>
@@ -6557,38 +6544,38 @@
       <c r="F10" s="130"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="218" t="s">
+      <c r="B11" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="219"/>
-      <c r="D11" s="211" t="s">
+      <c r="C11" s="220"/>
+      <c r="D11" s="215" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="97" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F11" s="131" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="25.5">
-      <c r="B12" s="222"/>
-      <c r="C12" s="223"/>
-      <c r="D12" s="233"/>
+      <c r="B12" s="221"/>
+      <c r="C12" s="222"/>
+      <c r="D12" s="216"/>
       <c r="E12" s="99" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F12" s="132" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="204">
-      <c r="B13" s="216" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="217"/>
+      <c r="B13" s="217" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="218"/>
       <c r="D13" s="93" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="E13" s="97" t="s">
         <v>14</v>
@@ -6596,71 +6583,71 @@
       <c r="F13" s="130"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="219" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="219"/>
-      <c r="D14" s="211" t="s">
-        <v>77</v>
+      <c r="C14" s="220"/>
+      <c r="D14" s="215" t="s">
+        <v>72</v>
       </c>
       <c r="E14" s="97" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="132" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="220"/>
-      <c r="C15" s="221"/>
-      <c r="D15" s="212"/>
+      <c r="B15" s="230"/>
+      <c r="C15" s="231"/>
+      <c r="D15" s="226"/>
       <c r="E15" s="97" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="132" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="220"/>
-      <c r="C16" s="221"/>
-      <c r="D16" s="214"/>
+      <c r="B16" s="230"/>
+      <c r="C16" s="231"/>
+      <c r="D16" s="228"/>
       <c r="E16" s="97" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F16" s="131" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="25.5">
-      <c r="B17" s="220"/>
-      <c r="C17" s="221"/>
-      <c r="D17" s="214"/>
+      <c r="B17" s="230"/>
+      <c r="C17" s="231"/>
+      <c r="D17" s="228"/>
       <c r="E17" s="97" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17" s="132" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="25.5">
-      <c r="B18" s="222"/>
-      <c r="C18" s="223"/>
-      <c r="D18" s="215"/>
+      <c r="B18" s="221"/>
+      <c r="C18" s="222"/>
+      <c r="D18" s="229"/>
       <c r="E18" s="97" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F18" s="132" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="89.25">
-      <c r="B19" s="216" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="217"/>
+      <c r="B19" s="217" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="218"/>
       <c r="D19" s="95" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E19" s="97" t="s">
         <v>14</v>
@@ -6668,47 +6655,54 @@
       <c r="F19" s="130"/>
     </row>
     <row r="20" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B20" s="218" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="219"/>
-      <c r="D20" s="211" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="99" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="208"/>
+      <c r="B20" s="219" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="220"/>
+      <c r="D20" s="215" t="s">
+        <v>171</v>
+      </c>
+      <c r="E20" s="97" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" s="223"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="220"/>
-      <c r="C21" s="221"/>
-      <c r="D21" s="212"/>
+      <c r="B21" s="230"/>
+      <c r="C21" s="231"/>
+      <c r="D21" s="226"/>
       <c r="E21" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="209"/>
+        <v>100</v>
+      </c>
+      <c r="F21" s="224"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="220"/>
-      <c r="C22" s="221"/>
-      <c r="D22" s="212"/>
-      <c r="E22" s="99" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" s="209"/>
+      <c r="B22" s="230"/>
+      <c r="C22" s="231"/>
+      <c r="D22" s="226"/>
+      <c r="E22" s="97" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" s="224"/>
     </row>
     <row r="23" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B23" s="224"/>
-      <c r="C23" s="225"/>
-      <c r="D23" s="213"/>
+      <c r="B23" s="232"/>
+      <c r="C23" s="233"/>
+      <c r="D23" s="227"/>
       <c r="E23" s="133" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="210"/>
+        <v>173</v>
+      </c>
+      <c r="F23" s="225"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C23"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
@@ -6719,19 +6713,12 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C12"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.67" right="0.75" top="0.79" bottom="0.7" header="0" footer="0.17"/>
   <pageSetup paperSize="9" scale="83" fitToHeight="2" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;LRev. 1.0&amp;CFecha Efectiva: 16/06/08&amp;RPág  &amp;P de &amp;N</oddFooter>
+    <oddFooter>&amp;LRev. 1.0&amp;CFecha Efectiva: 16/06/08&amp;RPág.  &amp;P de &amp;N</oddFooter>
   </headerFooter>
   <cellWatches>
     <cellWatch r="E11"/>

--- a/Area_de_Proceso-_REQM/LMREQM/LMREQM_V1.1_2015.xlsx
+++ b/Area_de_Proceso-_REQM/LMREQM/LMREQM_V1.1_2015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UTP-GPS-ALARM\UTP-GPS-ALARM\Area_de_Proceso-_REQM\LMREQM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thefa\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_REQM\LMREQM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7650" tabRatio="767" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7650" tabRatio="767" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="34" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <definedName name="TipoProyecto">'Diccionario de atributos-valor'!$E$20:$E$23</definedName>
     <definedName name="TipoRequerimientoDeSistema">'Diccionario de atributos-valor'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -247,9 +247,6 @@
     <t>Aprobado</t>
   </si>
   <si>
-    <t>Versión: 1.0</t>
-  </si>
-  <si>
     <t>Representa el nombre de la persona que puede proveer información sobre el requerimiento.</t>
   </si>
   <si>
@@ -370,9 +367,6 @@
     <t>Desarrollo</t>
   </si>
   <si>
-    <t>Fecha Efectiva: 13/10/2015</t>
-  </si>
-  <si>
     <t>Roger Apaestegui (Jefe de Proyecto)</t>
   </si>
   <si>
@@ -389,9 +383,6 @@
   </si>
   <si>
     <t>Jefe de Proyecto</t>
-  </si>
-  <si>
-    <t>Version Preliminar</t>
   </si>
   <si>
     <r>
@@ -596,12 +587,6 @@
     <t>Julio Leonardo Paredes</t>
   </si>
   <si>
-    <t>Version Preliminar Aprobada por QA</t>
-  </si>
-  <si>
-    <t>En Revisión</t>
-  </si>
-  <si>
     <t xml:space="preserve">Analista de Calidad </t>
   </si>
   <si>
@@ -705,11 +690,26 @@
   <si>
     <t>Manuel Sáenz Tarazona (MST E.I.R.L.)</t>
   </si>
+  <si>
+    <t>Version Preliminar Revisada por QA</t>
+  </si>
+  <si>
+    <t>Revisado</t>
+  </si>
+  <si>
+    <t>Version Final pendiente de Aprobación</t>
+  </si>
+  <si>
+    <t>Fecha Efectiva: 19/11/2015</t>
+  </si>
+  <si>
+    <t>Versión: 1.1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1352,7 +1352,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1541,9 +1541,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1733,6 +1730,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1745,173 +1745,170 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1924,6 +1921,10 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1958,6 +1959,60 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1979,66 +2034,14 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2795,7 +2798,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2822,15 +2825,15 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="55"/>
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
       <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:9">
@@ -2875,22 +2878,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="137" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D5" s="138">
         <v>42290</v>
       </c>
       <c r="E5" s="136" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F5" s="136" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="G5" s="136" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="H5" s="136" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I5" s="55"/>
     </row>
@@ -2910,22 +2913,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="137" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="138">
+        <v>42327</v>
+      </c>
+      <c r="E7" s="136" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="136" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="136" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" s="136" t="s">
         <v>152</v>
-      </c>
-      <c r="D7" s="138">
-        <v>42313</v>
-      </c>
-      <c r="E7" s="136" t="s">
-        <v>154</v>
-      </c>
-      <c r="F7" s="136" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="136" t="s">
-        <v>157</v>
-      </c>
-      <c r="H7" s="136" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2939,6 +2942,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -2947,13 +2957,6 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2967,7 +2970,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36:XFD36"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2996,93 +2999,93 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="74"/>
-      <c r="E2" s="184" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
+      <c r="E2" s="158" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="185" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-    </row>
-    <row r="4" spans="1:8" s="80" customFormat="1">
-      <c r="A4" s="76"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-    </row>
-    <row r="5" spans="1:8" s="80" customFormat="1">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76" t="s">
+      <c r="D3" s="235" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="234" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+    </row>
+    <row r="4" spans="1:8" s="79" customFormat="1">
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+    </row>
+    <row r="5" spans="1:8" s="79" customFormat="1">
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="191" t="s">
+      <c r="D6" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="191"/>
-      <c r="F6" s="191"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="191"/>
-    </row>
-    <row r="7" spans="1:8" s="80" customFormat="1">
-      <c r="A7" s="76"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-    </row>
-    <row r="8" spans="1:8" s="80" customFormat="1">
-      <c r="A8" s="76"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+    </row>
+    <row r="7" spans="1:8" s="79" customFormat="1">
+      <c r="A7" s="75"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+    </row>
+    <row r="8" spans="1:8" s="79" customFormat="1">
+      <c r="A8" s="75"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="186" t="s">
+      <c r="D9" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="187"/>
+      <c r="E9" s="161"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="192" t="s">
+      <c r="G9" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="192"/>
+      <c r="H9" s="166"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="9"/>
@@ -3096,14 +3099,14 @@
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="188" t="s">
+      <c r="D11" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="188"/>
-      <c r="G11" s="193" t="s">
+      <c r="E11" s="162"/>
+      <c r="G11" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="193"/>
+      <c r="H11" s="167"/>
     </row>
     <row r="12" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A12" s="9"/>
@@ -3116,14 +3119,14 @@
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="189" t="s">
+      <c r="D13" s="163" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="189"/>
-      <c r="G13" s="193" t="s">
+      <c r="E13" s="163"/>
+      <c r="G13" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="193"/>
+      <c r="H13" s="167"/>
     </row>
     <row r="14" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A14" s="9"/>
@@ -3134,14 +3137,14 @@
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="190" t="s">
+      <c r="D15" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="190"/>
-      <c r="G15" s="193" t="s">
+      <c r="E15" s="164"/>
+      <c r="G15" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="193"/>
+      <c r="H15" s="167"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="7"/>
@@ -3152,14 +3155,14 @@
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="183" t="s">
+      <c r="D17" s="155" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="183"/>
-      <c r="G17" s="193" t="s">
+      <c r="E17" s="155"/>
+      <c r="G17" s="167" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="193"/>
+      <c r="H17" s="167"/>
     </row>
     <row r="18" spans="1:8" s="17" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="15"/>
@@ -3176,79 +3179,79 @@
       <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:8" s="19" customFormat="1" ht="16.5" customHeight="1">
-      <c r="D20" s="150" t="s">
+      <c r="D20" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="150"/>
-      <c r="H20" s="150"/>
+      <c r="E20" s="153"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="153"/>
     </row>
     <row r="21" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D21" s="181" t="s">
+      <c r="D21" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="182"/>
-      <c r="F21" s="151" t="s">
+      <c r="E21" s="142"/>
+      <c r="F21" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
     </row>
     <row r="22" spans="1:8" s="19" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D22" s="179" t="s">
+      <c r="D22" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="180"/>
-      <c r="F22" s="149" t="s">
+      <c r="E22" s="157"/>
+      <c r="F22" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="149"/>
-      <c r="H22" s="149"/>
+      <c r="G22" s="168"/>
+      <c r="H22" s="168"/>
     </row>
     <row r="23" spans="1:8" s="19" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D23" s="179" t="s">
+      <c r="D23" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="180"/>
-      <c r="F23" s="149" t="s">
+      <c r="E23" s="157"/>
+      <c r="F23" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="149"/>
-      <c r="H23" s="149"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="168"/>
     </row>
     <row r="24" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D24" s="179" t="s">
+      <c r="D24" s="156" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="157"/>
+      <c r="F24" s="172" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="173"/>
+      <c r="H24" s="174"/>
+    </row>
+    <row r="25" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
+      <c r="D25" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="157"/>
+      <c r="F25" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="180"/>
-      <c r="F24" s="168" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="169"/>
-      <c r="H24" s="170"/>
-    </row>
-    <row r="25" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D25" s="179" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="180"/>
-      <c r="F25" s="149" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
+      <c r="G25" s="168"/>
+      <c r="H25" s="168"/>
     </row>
     <row r="26" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D26" s="179" t="s">
+      <c r="D26" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="180"/>
-      <c r="F26" s="149" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="168" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="168"/>
+      <c r="H26" s="168"/>
     </row>
     <row r="27" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
       <c r="D27" s="50"/>
@@ -3265,183 +3268,183 @@
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:8" s="19" customFormat="1" ht="16.5" customHeight="1">
-      <c r="D29" s="150" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
+      <c r="D29" s="153" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="153"/>
     </row>
     <row r="30" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D30" s="181" t="s">
+      <c r="D30" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="182"/>
-      <c r="F30" s="151" t="s">
+      <c r="E30" s="142"/>
+      <c r="F30" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="154"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="152" t="s">
+      <c r="D31" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="152"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="153"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="173" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="174"/>
-      <c r="F32" s="154" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" s="155"/>
-      <c r="H32" s="156"/>
+      <c r="D32" s="179" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="180"/>
+      <c r="F32" s="150" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="151"/>
+      <c r="H32" s="152"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="173" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="174"/>
-      <c r="F33" s="154" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="155"/>
-      <c r="H33" s="156"/>
+      <c r="D33" s="179" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="180"/>
+      <c r="F33" s="150" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="151"/>
+      <c r="H33" s="152"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="157" t="s">
+      <c r="D34" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="157"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="158"/>
+      <c r="E34" s="183"/>
+      <c r="F34" s="184"/>
+      <c r="G34" s="184"/>
+      <c r="H34" s="184"/>
     </row>
     <row r="35" spans="1:8" ht="24.75" customHeight="1">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="173" t="s">
+      <c r="D35" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="174"/>
-      <c r="F35" s="159" t="s">
-        <v>69</v>
-      </c>
-      <c r="G35" s="160"/>
-      <c r="H35" s="161"/>
+      <c r="E35" s="180"/>
+      <c r="F35" s="169" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="170"/>
+      <c r="H35" s="171"/>
     </row>
     <row r="36" spans="1:8" ht="24.75" customHeight="1">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
-      <c r="D36" s="173" t="s">
+      <c r="D36" s="179" t="s">
         <v>57</v>
       </c>
-      <c r="E36" s="174"/>
-      <c r="F36" s="159" t="s">
-        <v>92</v>
-      </c>
-      <c r="G36" s="160"/>
-      <c r="H36" s="161"/>
+      <c r="E36" s="180"/>
+      <c r="F36" s="169" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="170"/>
+      <c r="H36" s="171"/>
     </row>
     <row r="37" spans="1:8" ht="42" customHeight="1">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="173" t="s">
+      <c r="D37" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="174"/>
-      <c r="F37" s="159" t="s">
-        <v>87</v>
-      </c>
-      <c r="G37" s="160"/>
-      <c r="H37" s="161"/>
+      <c r="E37" s="180"/>
+      <c r="F37" s="169" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="170"/>
+      <c r="H37" s="171"/>
     </row>
     <row r="38" spans="1:8" ht="354" customHeight="1">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="166" t="s">
+      <c r="D38" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="167"/>
-      <c r="F38" s="164" t="s">
-        <v>109</v>
-      </c>
-      <c r="G38" s="171"/>
-      <c r="H38" s="171"/>
+      <c r="E38" s="144"/>
+      <c r="F38" s="176" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" s="177"/>
+      <c r="H38" s="177"/>
     </row>
     <row r="39" spans="1:8" s="19" customFormat="1" ht="25.5" customHeight="1">
-      <c r="D39" s="175" t="s">
-        <v>86</v>
-      </c>
-      <c r="E39" s="176"/>
-      <c r="F39" s="172" t="s">
+      <c r="D39" s="145" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="146"/>
+      <c r="F39" s="178" t="s">
         <v>42</v>
       </c>
-      <c r="G39" s="171"/>
-      <c r="H39" s="171"/>
+      <c r="G39" s="177"/>
+      <c r="H39" s="177"/>
     </row>
     <row r="40" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D40" s="175" t="s">
+      <c r="D40" s="145" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="146"/>
+      <c r="F40" s="176" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" s="185"/>
+      <c r="H40" s="185"/>
+    </row>
+    <row r="41" spans="1:8" s="19" customFormat="1" ht="24" customHeight="1">
+      <c r="D41" s="181" t="s">
         <v>75</v>
       </c>
-      <c r="E40" s="176"/>
-      <c r="F40" s="164" t="s">
-        <v>77</v>
-      </c>
-      <c r="G40" s="165"/>
-      <c r="H40" s="165"/>
-    </row>
-    <row r="41" spans="1:8" s="19" customFormat="1" ht="24" customHeight="1">
-      <c r="D41" s="177" t="s">
-        <v>76</v>
-      </c>
-      <c r="E41" s="178"/>
-      <c r="F41" s="191" t="s">
-        <v>166</v>
-      </c>
-      <c r="G41" s="165"/>
-      <c r="H41" s="165"/>
+      <c r="E41" s="182"/>
+      <c r="F41" s="165" t="s">
+        <v>161</v>
+      </c>
+      <c r="G41" s="185"/>
+      <c r="H41" s="185"/>
     </row>
     <row r="42" spans="1:8" s="19" customFormat="1" ht="25.5" customHeight="1">
-      <c r="D42" s="177" t="s">
+      <c r="D42" s="181" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="182"/>
+      <c r="F42" s="176" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="178"/>
-      <c r="F42" s="164" t="s">
-        <v>74</v>
-      </c>
-      <c r="G42" s="165"/>
-      <c r="H42" s="165"/>
+      <c r="G42" s="185"/>
+      <c r="H42" s="185"/>
     </row>
     <row r="43" spans="1:8" s="19" customFormat="1">
       <c r="D43" s="51"/>
       <c r="E43" s="51"/>
       <c r="F43" s="51"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
     </row>
     <row r="44" spans="1:8" ht="13.5">
       <c r="A44" s="7"/>
@@ -3454,125 +3457,125 @@
       <c r="H44" s="73"/>
     </row>
     <row r="45" spans="1:8" s="19" customFormat="1" ht="16.5" customHeight="1">
-      <c r="D45" s="150" t="s">
-        <v>93</v>
-      </c>
-      <c r="E45" s="150"/>
-      <c r="F45" s="150"/>
-      <c r="G45" s="150"/>
-      <c r="H45" s="150"/>
+      <c r="D45" s="153" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="153"/>
+      <c r="F45" s="153"/>
+      <c r="G45" s="153"/>
+      <c r="H45" s="153"/>
     </row>
     <row r="46" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D46" s="181" t="s">
+      <c r="D46" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="E46" s="182"/>
-      <c r="F46" s="151" t="s">
+      <c r="E46" s="142"/>
+      <c r="F46" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="G46" s="151"/>
-      <c r="H46" s="151"/>
+      <c r="G46" s="154"/>
+      <c r="H46" s="154"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
-      <c r="D47" s="152" t="s">
+      <c r="D47" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="152"/>
-      <c r="F47" s="153"/>
-      <c r="G47" s="153"/>
-      <c r="H47" s="153"/>
+      <c r="E47" s="148"/>
+      <c r="F47" s="149"/>
+      <c r="G47" s="149"/>
+      <c r="H47" s="149"/>
     </row>
     <row r="48" spans="1:8" s="68" customFormat="1">
       <c r="A48" s="67"/>
       <c r="B48" s="67"/>
       <c r="C48" s="67"/>
-      <c r="D48" s="194" t="s">
-        <v>107</v>
-      </c>
-      <c r="E48" s="167"/>
-      <c r="F48" s="154" t="s">
-        <v>159</v>
-      </c>
-      <c r="G48" s="155"/>
-      <c r="H48" s="156"/>
+      <c r="D48" s="143" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" s="144"/>
+      <c r="F48" s="150" t="s">
+        <v>154</v>
+      </c>
+      <c r="G48" s="151"/>
+      <c r="H48" s="152"/>
     </row>
     <row r="49" spans="1:255" s="68" customFormat="1" ht="12" customHeight="1">
       <c r="A49" s="67"/>
       <c r="B49" s="67"/>
       <c r="C49" s="67"/>
-      <c r="D49" s="175" t="s">
+      <c r="D49" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="176"/>
-      <c r="F49" s="154" t="s">
-        <v>63</v>
-      </c>
-      <c r="G49" s="155"/>
-      <c r="H49" s="156"/>
+      <c r="E49" s="146"/>
+      <c r="F49" s="150" t="s">
+        <v>62</v>
+      </c>
+      <c r="G49" s="151"/>
+      <c r="H49" s="152"/>
     </row>
     <row r="50" spans="1:255" s="68" customFormat="1">
       <c r="A50" s="67"/>
       <c r="B50" s="67"/>
       <c r="C50" s="67"/>
-      <c r="D50" s="152" t="s">
+      <c r="D50" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="152"/>
-      <c r="F50" s="153"/>
-      <c r="G50" s="153"/>
-      <c r="H50" s="153"/>
+      <c r="E50" s="148"/>
+      <c r="F50" s="149"/>
+      <c r="G50" s="149"/>
+      <c r="H50" s="149"/>
     </row>
     <row r="51" spans="1:255" s="68" customFormat="1">
       <c r="A51" s="67"/>
       <c r="B51" s="67"/>
       <c r="C51" s="67"/>
-      <c r="D51" s="166" t="s">
+      <c r="D51" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="E51" s="167"/>
-      <c r="F51" s="154" t="s">
-        <v>94</v>
-      </c>
-      <c r="G51" s="155"/>
-      <c r="H51" s="156"/>
+      <c r="E51" s="144"/>
+      <c r="F51" s="150" t="s">
+        <v>93</v>
+      </c>
+      <c r="G51" s="151"/>
+      <c r="H51" s="152"/>
     </row>
     <row r="52" spans="1:255" s="68" customFormat="1">
       <c r="A52" s="67"/>
       <c r="B52" s="67"/>
       <c r="C52" s="67"/>
-      <c r="D52" s="166" t="s">
+      <c r="D52" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="167"/>
-      <c r="F52" s="154" t="s">
-        <v>167</v>
-      </c>
-      <c r="G52" s="155"/>
-      <c r="H52" s="156"/>
+      <c r="E52" s="144"/>
+      <c r="F52" s="150" t="s">
+        <v>162</v>
+      </c>
+      <c r="G52" s="151"/>
+      <c r="H52" s="152"/>
     </row>
     <row r="53" spans="1:255" s="68" customFormat="1">
       <c r="A53" s="67"/>
       <c r="B53" s="67"/>
       <c r="C53" s="67"/>
-      <c r="D53" s="166" t="s">
+      <c r="D53" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="E53" s="167"/>
-      <c r="F53" s="154" t="s">
+      <c r="E53" s="144"/>
+      <c r="F53" s="150" t="s">
         <v>43</v>
       </c>
-      <c r="G53" s="155"/>
-      <c r="H53" s="156"/>
+      <c r="G53" s="151"/>
+      <c r="H53" s="152"/>
     </row>
     <row r="54" spans="1:255" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="85"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="83"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="84"/>
+      <c r="H54" s="84"/>
     </row>
     <row r="55" spans="1:255" ht="13.5">
       <c r="A55" s="7"/>
@@ -3585,64 +3588,64 @@
       <c r="H55" s="73"/>
     </row>
     <row r="56" spans="1:255" s="19" customFormat="1" ht="16.5" customHeight="1">
-      <c r="D56" s="150" t="s">
+      <c r="D56" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="E56" s="150"/>
-      <c r="F56" s="150"/>
-      <c r="G56" s="150"/>
-      <c r="H56" s="150"/>
+      <c r="E56" s="153"/>
+      <c r="F56" s="153"/>
+      <c r="G56" s="153"/>
+      <c r="H56" s="153"/>
     </row>
     <row r="57" spans="1:255" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D57" s="181" t="s">
+      <c r="D57" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="E57" s="182"/>
-      <c r="F57" s="151" t="s">
+      <c r="E57" s="142"/>
+      <c r="F57" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="G57" s="151"/>
-      <c r="H57" s="151"/>
+      <c r="G57" s="154"/>
+      <c r="H57" s="154"/>
     </row>
     <row r="58" spans="1:255">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
-      <c r="D58" s="152" t="s">
+      <c r="D58" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="E58" s="152"/>
-      <c r="F58" s="153"/>
-      <c r="G58" s="153"/>
-      <c r="H58" s="153"/>
+      <c r="E58" s="148"/>
+      <c r="F58" s="149"/>
+      <c r="G58" s="149"/>
+      <c r="H58" s="149"/>
     </row>
     <row r="59" spans="1:255" s="69" customFormat="1">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
-      <c r="D59" s="166" t="s">
+      <c r="D59" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="E59" s="167"/>
-      <c r="F59" s="154" t="s">
-        <v>168</v>
-      </c>
-      <c r="G59" s="155"/>
-      <c r="H59" s="156"/>
+      <c r="E59" s="144"/>
+      <c r="F59" s="150" t="s">
+        <v>163</v>
+      </c>
+      <c r="G59" s="151"/>
+      <c r="H59" s="152"/>
     </row>
     <row r="60" spans="1:255" s="69" customFormat="1">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
-      <c r="D60" s="166" t="s">
+      <c r="D60" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="E60" s="167"/>
-      <c r="F60" s="154" t="s">
-        <v>169</v>
-      </c>
-      <c r="G60" s="155"/>
-      <c r="H60" s="156"/>
+      <c r="E60" s="144"/>
+      <c r="F60" s="150" t="s">
+        <v>164</v>
+      </c>
+      <c r="G60" s="151"/>
+      <c r="H60" s="152"/>
     </row>
     <row r="61" spans="1:255" ht="18" customHeight="1">
       <c r="A61" s="7"/>
@@ -3651,17 +3654,17 @@
       <c r="D61" s="51"/>
       <c r="E61" s="51"/>
       <c r="F61" s="52"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="83"/>
+      <c r="G61" s="82"/>
+      <c r="H61" s="82"/>
     </row>
     <row r="62" spans="1:255" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D62" s="150" t="s">
+      <c r="D62" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="E62" s="150"/>
-      <c r="F62" s="150"/>
-      <c r="G62" s="150"/>
-      <c r="H62" s="150"/>
+      <c r="E62" s="153"/>
+      <c r="F62" s="153"/>
+      <c r="G62" s="153"/>
+      <c r="H62" s="153"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
@@ -3913,83 +3916,83 @@
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
-      <c r="D63" s="181" t="s">
+      <c r="D63" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="E63" s="182"/>
-      <c r="F63" s="151" t="s">
+      <c r="E63" s="142"/>
+      <c r="F63" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="G63" s="151"/>
-      <c r="H63" s="151"/>
+      <c r="G63" s="154"/>
+      <c r="H63" s="154"/>
     </row>
     <row r="64" spans="1:255">
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
-      <c r="D64" s="152" t="s">
+      <c r="D64" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="E64" s="152"/>
-      <c r="F64" s="153"/>
-      <c r="G64" s="153"/>
-      <c r="H64" s="153"/>
+      <c r="E64" s="148"/>
+      <c r="F64" s="149"/>
+      <c r="G64" s="149"/>
+      <c r="H64" s="149"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="15"/>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
-      <c r="D65" s="162" t="s">
+      <c r="D65" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="163"/>
-      <c r="F65" s="154" t="s">
-        <v>95</v>
-      </c>
-      <c r="G65" s="155"/>
-      <c r="H65" s="156"/>
+      <c r="E65" s="140"/>
+      <c r="F65" s="150" t="s">
+        <v>94</v>
+      </c>
+      <c r="G65" s="151"/>
+      <c r="H65" s="152"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
-      <c r="D66" s="162" t="s">
+      <c r="D66" s="139" t="s">
         <v>59</v>
       </c>
-      <c r="E66" s="163"/>
-      <c r="F66" s="154" t="s">
-        <v>96</v>
-      </c>
-      <c r="G66" s="155"/>
-      <c r="H66" s="156"/>
+      <c r="E66" s="140"/>
+      <c r="F66" s="150" t="s">
+        <v>95</v>
+      </c>
+      <c r="G66" s="151"/>
+      <c r="H66" s="152"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
-      <c r="D67" s="162" t="s">
+      <c r="D67" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="163"/>
-      <c r="F67" s="154" t="s">
-        <v>97</v>
-      </c>
-      <c r="G67" s="155"/>
-      <c r="H67" s="156"/>
+      <c r="E67" s="140"/>
+      <c r="F67" s="150" t="s">
+        <v>96</v>
+      </c>
+      <c r="G67" s="151"/>
+      <c r="H67" s="152"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
-      <c r="D68" s="162" t="s">
+      <c r="D68" s="139" t="s">
         <v>60</v>
       </c>
-      <c r="E68" s="163"/>
-      <c r="F68" s="154" t="s">
-        <v>98</v>
-      </c>
-      <c r="G68" s="155"/>
-      <c r="H68" s="156"/>
+      <c r="E68" s="140"/>
+      <c r="F68" s="150" t="s">
+        <v>97</v>
+      </c>
+      <c r="G68" s="151"/>
+      <c r="H68" s="152"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="15"/>
@@ -4035,9 +4038,9 @@
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
-      <c r="D73" s="147"/>
-      <c r="E73" s="147"/>
-      <c r="F73" s="147"/>
+      <c r="D73" s="175"/>
+      <c r="E73" s="175"/>
+      <c r="F73" s="175"/>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
     </row>
@@ -4065,9 +4068,9 @@
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
-      <c r="D76" s="147"/>
-      <c r="E76" s="147"/>
-      <c r="F76" s="147"/>
+      <c r="D76" s="175"/>
+      <c r="E76" s="175"/>
+      <c r="F76" s="175"/>
       <c r="G76" s="23"/>
       <c r="H76" s="17"/>
     </row>
@@ -4115,9 +4118,9 @@
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
-      <c r="D81" s="147"/>
-      <c r="E81" s="147"/>
-      <c r="F81" s="147"/>
+      <c r="D81" s="175"/>
+      <c r="E81" s="175"/>
+      <c r="F81" s="175"/>
       <c r="G81" s="23"/>
       <c r="H81" s="17"/>
     </row>
@@ -4182,9 +4185,9 @@
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
-      <c r="D88" s="147"/>
-      <c r="E88" s="147"/>
-      <c r="F88" s="147"/>
+      <c r="D88" s="175"/>
+      <c r="E88" s="175"/>
+      <c r="F88" s="175"/>
       <c r="G88" s="17"/>
       <c r="H88" s="17"/>
     </row>
@@ -4192,9 +4195,9 @@
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
-      <c r="D89" s="147"/>
-      <c r="E89" s="147"/>
-      <c r="F89" s="147"/>
+      <c r="D89" s="175"/>
+      <c r="E89" s="175"/>
+      <c r="F89" s="175"/>
       <c r="G89" s="17"/>
       <c r="H89" s="17"/>
     </row>
@@ -4202,9 +4205,9 @@
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
-      <c r="D90" s="147"/>
-      <c r="E90" s="147"/>
-      <c r="F90" s="147"/>
+      <c r="D90" s="175"/>
+      <c r="E90" s="175"/>
+      <c r="F90" s="175"/>
       <c r="G90" s="17"/>
       <c r="H90" s="17"/>
     </row>
@@ -4212,9 +4215,9 @@
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
-      <c r="D91" s="147"/>
-      <c r="E91" s="147"/>
-      <c r="F91" s="147"/>
+      <c r="D91" s="175"/>
+      <c r="E91" s="175"/>
+      <c r="F91" s="175"/>
       <c r="G91" s="23"/>
       <c r="H91" s="17"/>
     </row>
@@ -4463,8 +4466,8 @@
       <c r="D116" s="32"/>
       <c r="E116" s="32"/>
       <c r="F116" s="17"/>
-      <c r="G116" s="146"/>
-      <c r="H116" s="146"/>
+      <c r="G116" s="186"/>
+      <c r="H116" s="186"/>
     </row>
     <row r="117" spans="1:8" ht="18.75" customHeight="1">
       <c r="A117" s="15"/>
@@ -4750,11 +4753,11 @@
       <c r="A145" s="17"/>
       <c r="B145" s="17"/>
       <c r="C145" s="17"/>
-      <c r="D145" s="148"/>
-      <c r="E145" s="148"/>
-      <c r="F145" s="148"/>
-      <c r="G145" s="148"/>
-      <c r="H145" s="148"/>
+      <c r="D145" s="187"/>
+      <c r="E145" s="187"/>
+      <c r="F145" s="187"/>
+      <c r="G145" s="187"/>
+      <c r="H145" s="187"/>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="17"/>
@@ -4772,9 +4775,9 @@
       <c r="C147" s="17"/>
       <c r="D147" s="42"/>
       <c r="E147" s="42"/>
-      <c r="F147" s="142"/>
-      <c r="G147" s="142"/>
-      <c r="H147" s="142"/>
+      <c r="F147" s="188"/>
+      <c r="G147" s="188"/>
+      <c r="H147" s="188"/>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="17"/>
@@ -4792,9 +4795,9 @@
       <c r="C149" s="17"/>
       <c r="D149" s="44"/>
       <c r="E149" s="44"/>
-      <c r="F149" s="144"/>
-      <c r="G149" s="142"/>
-      <c r="H149" s="142"/>
+      <c r="F149" s="189"/>
+      <c r="G149" s="188"/>
+      <c r="H149" s="188"/>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="17"/>
@@ -4812,9 +4815,9 @@
       <c r="C151" s="17"/>
       <c r="D151" s="42"/>
       <c r="E151" s="42"/>
-      <c r="F151" s="142"/>
-      <c r="G151" s="142"/>
-      <c r="H151" s="142"/>
+      <c r="F151" s="188"/>
+      <c r="G151" s="188"/>
+      <c r="H151" s="188"/>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="17"/>
@@ -4832,9 +4835,9 @@
       <c r="C153" s="17"/>
       <c r="D153" s="44"/>
       <c r="E153" s="44"/>
-      <c r="F153" s="144"/>
-      <c r="G153" s="142"/>
-      <c r="H153" s="142"/>
+      <c r="F153" s="189"/>
+      <c r="G153" s="188"/>
+      <c r="H153" s="188"/>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="17"/>
@@ -4862,9 +4865,9 @@
       <c r="C156" s="17"/>
       <c r="D156" s="42"/>
       <c r="E156" s="42"/>
-      <c r="F156" s="142"/>
-      <c r="G156" s="142"/>
-      <c r="H156" s="142"/>
+      <c r="F156" s="188"/>
+      <c r="G156" s="188"/>
+      <c r="H156" s="188"/>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="17"/>
@@ -4882,9 +4885,9 @@
       <c r="C158" s="17"/>
       <c r="D158" s="44"/>
       <c r="E158" s="44"/>
-      <c r="F158" s="144"/>
-      <c r="G158" s="142"/>
-      <c r="H158" s="142"/>
+      <c r="F158" s="189"/>
+      <c r="G158" s="188"/>
+      <c r="H158" s="188"/>
     </row>
     <row r="159" spans="1:8" ht="90" customHeight="1">
       <c r="A159" s="17"/>
@@ -4892,9 +4895,9 @@
       <c r="C159" s="17"/>
       <c r="D159" s="44"/>
       <c r="E159" s="44"/>
-      <c r="F159" s="144"/>
-      <c r="G159" s="142"/>
-      <c r="H159" s="142"/>
+      <c r="F159" s="189"/>
+      <c r="G159" s="188"/>
+      <c r="H159" s="188"/>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="17"/>
@@ -4902,9 +4905,9 @@
       <c r="C160" s="17"/>
       <c r="D160" s="44"/>
       <c r="E160" s="44"/>
-      <c r="F160" s="145"/>
-      <c r="G160" s="146"/>
-      <c r="H160" s="146"/>
+      <c r="F160" s="190"/>
+      <c r="G160" s="186"/>
+      <c r="H160" s="186"/>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="17"/>
@@ -4912,8 +4915,8 @@
       <c r="C161" s="17"/>
       <c r="D161" s="46"/>
       <c r="E161" s="46"/>
-      <c r="F161" s="140"/>
-      <c r="G161" s="140"/>
+      <c r="F161" s="191"/>
+      <c r="G161" s="191"/>
       <c r="H161" s="34"/>
     </row>
     <row r="162" spans="1:8">
@@ -4922,8 +4925,8 @@
       <c r="C162" s="17"/>
       <c r="D162" s="46"/>
       <c r="E162" s="46"/>
-      <c r="F162" s="140"/>
-      <c r="G162" s="140"/>
+      <c r="F162" s="191"/>
+      <c r="G162" s="191"/>
       <c r="H162" s="34"/>
     </row>
     <row r="163" spans="1:8">
@@ -4932,8 +4935,8 @@
       <c r="C163" s="17"/>
       <c r="D163" s="46"/>
       <c r="E163" s="46"/>
-      <c r="F163" s="140"/>
-      <c r="G163" s="140"/>
+      <c r="F163" s="191"/>
+      <c r="G163" s="191"/>
       <c r="H163" s="34"/>
     </row>
     <row r="164" spans="1:8">
@@ -4942,8 +4945,8 @@
       <c r="C164" s="17"/>
       <c r="D164" s="46"/>
       <c r="E164" s="46"/>
-      <c r="F164" s="140"/>
-      <c r="G164" s="140"/>
+      <c r="F164" s="191"/>
+      <c r="G164" s="191"/>
       <c r="H164" s="34"/>
     </row>
     <row r="165" spans="1:8">
@@ -4952,8 +4955,8 @@
       <c r="C165" s="17"/>
       <c r="D165" s="46"/>
       <c r="E165" s="46"/>
-      <c r="F165" s="140"/>
-      <c r="G165" s="140"/>
+      <c r="F165" s="191"/>
+      <c r="G165" s="191"/>
       <c r="H165" s="34"/>
     </row>
     <row r="166" spans="1:8">
@@ -4962,8 +4965,8 @@
       <c r="C166" s="17"/>
       <c r="D166" s="46"/>
       <c r="E166" s="46"/>
-      <c r="F166" s="140"/>
-      <c r="G166" s="140"/>
+      <c r="F166" s="191"/>
+      <c r="G166" s="191"/>
       <c r="H166" s="34"/>
     </row>
     <row r="167" spans="1:8">
@@ -4972,8 +4975,8 @@
       <c r="C167" s="17"/>
       <c r="D167" s="46"/>
       <c r="E167" s="46"/>
-      <c r="F167" s="140"/>
-      <c r="G167" s="140"/>
+      <c r="F167" s="191"/>
+      <c r="G167" s="191"/>
       <c r="H167" s="48"/>
     </row>
     <row r="168" spans="1:8">
@@ -4982,8 +4985,8 @@
       <c r="C168" s="17"/>
       <c r="D168" s="46"/>
       <c r="E168" s="46"/>
-      <c r="F168" s="140"/>
-      <c r="G168" s="140"/>
+      <c r="F168" s="191"/>
+      <c r="G168" s="191"/>
       <c r="H168" s="48"/>
     </row>
     <row r="169" spans="1:8">
@@ -4992,8 +4995,8 @@
       <c r="C169" s="17"/>
       <c r="D169" s="46"/>
       <c r="E169" s="46"/>
-      <c r="F169" s="140"/>
-      <c r="G169" s="140"/>
+      <c r="F169" s="191"/>
+      <c r="G169" s="191"/>
       <c r="H169" s="48"/>
     </row>
     <row r="170" spans="1:8">
@@ -5002,8 +5005,8 @@
       <c r="C170" s="17"/>
       <c r="D170" s="46"/>
       <c r="E170" s="46"/>
-      <c r="F170" s="140"/>
-      <c r="G170" s="140"/>
+      <c r="F170" s="191"/>
+      <c r="G170" s="191"/>
       <c r="H170" s="48"/>
     </row>
     <row r="171" spans="1:8" ht="26.25" customHeight="1">
@@ -5012,9 +5015,9 @@
       <c r="C171" s="17"/>
       <c r="D171" s="46"/>
       <c r="E171" s="46"/>
-      <c r="F171" s="143"/>
-      <c r="G171" s="143"/>
-      <c r="H171" s="143"/>
+      <c r="F171" s="192"/>
+      <c r="G171" s="192"/>
+      <c r="H171" s="192"/>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="17"/>
@@ -5080,9 +5083,9 @@
       <c r="A178" s="17"/>
       <c r="B178" s="17"/>
       <c r="C178" s="17"/>
-      <c r="D178" s="140"/>
-      <c r="E178" s="140"/>
-      <c r="F178" s="140"/>
+      <c r="D178" s="191"/>
+      <c r="E178" s="191"/>
+      <c r="F178" s="191"/>
       <c r="G178" s="17"/>
       <c r="H178" s="17"/>
     </row>
@@ -5090,9 +5093,9 @@
       <c r="A179" s="17"/>
       <c r="B179" s="17"/>
       <c r="C179" s="17"/>
-      <c r="D179" s="140"/>
-      <c r="E179" s="140"/>
-      <c r="F179" s="140"/>
+      <c r="D179" s="191"/>
+      <c r="E179" s="191"/>
+      <c r="F179" s="191"/>
       <c r="G179" s="17"/>
       <c r="H179" s="17"/>
     </row>
@@ -5100,9 +5103,9 @@
       <c r="A180" s="17"/>
       <c r="B180" s="17"/>
       <c r="C180" s="17"/>
-      <c r="D180" s="140"/>
-      <c r="E180" s="140"/>
-      <c r="F180" s="140"/>
+      <c r="D180" s="191"/>
+      <c r="E180" s="191"/>
+      <c r="F180" s="191"/>
       <c r="G180" s="17"/>
       <c r="H180" s="17"/>
     </row>
@@ -5110,9 +5113,9 @@
       <c r="A181" s="17"/>
       <c r="B181" s="17"/>
       <c r="C181" s="17"/>
-      <c r="D181" s="140"/>
-      <c r="E181" s="140"/>
-      <c r="F181" s="140"/>
+      <c r="D181" s="191"/>
+      <c r="E181" s="191"/>
+      <c r="F181" s="191"/>
       <c r="G181" s="17"/>
       <c r="H181" s="17"/>
     </row>
@@ -5120,9 +5123,9 @@
       <c r="A182" s="17"/>
       <c r="B182" s="17"/>
       <c r="C182" s="17"/>
-      <c r="D182" s="140"/>
-      <c r="E182" s="140"/>
-      <c r="F182" s="140"/>
+      <c r="D182" s="191"/>
+      <c r="E182" s="191"/>
+      <c r="F182" s="191"/>
       <c r="G182" s="17"/>
       <c r="H182" s="17"/>
     </row>
@@ -5130,9 +5133,9 @@
       <c r="A183" s="17"/>
       <c r="B183" s="17"/>
       <c r="C183" s="17"/>
-      <c r="D183" s="140"/>
-      <c r="E183" s="140"/>
-      <c r="F183" s="140"/>
+      <c r="D183" s="191"/>
+      <c r="E183" s="191"/>
+      <c r="F183" s="191"/>
       <c r="G183" s="17"/>
       <c r="H183" s="17"/>
     </row>
@@ -5140,9 +5143,9 @@
       <c r="A184" s="17"/>
       <c r="B184" s="17"/>
       <c r="C184" s="17"/>
-      <c r="D184" s="140"/>
-      <c r="E184" s="140"/>
-      <c r="F184" s="140"/>
+      <c r="D184" s="191"/>
+      <c r="E184" s="191"/>
+      <c r="F184" s="191"/>
       <c r="G184" s="17"/>
       <c r="H184" s="17"/>
     </row>
@@ -5150,9 +5153,9 @@
       <c r="A185" s="17"/>
       <c r="B185" s="17"/>
       <c r="C185" s="17"/>
-      <c r="D185" s="140"/>
-      <c r="E185" s="140"/>
-      <c r="F185" s="140"/>
+      <c r="D185" s="191"/>
+      <c r="E185" s="191"/>
+      <c r="F185" s="191"/>
       <c r="G185" s="17"/>
       <c r="H185" s="17"/>
     </row>
@@ -5160,9 +5163,9 @@
       <c r="A186" s="17"/>
       <c r="B186" s="17"/>
       <c r="C186" s="17"/>
-      <c r="D186" s="140"/>
-      <c r="E186" s="140"/>
-      <c r="F186" s="140"/>
+      <c r="D186" s="191"/>
+      <c r="E186" s="191"/>
+      <c r="F186" s="191"/>
       <c r="G186" s="17"/>
       <c r="H186" s="17"/>
     </row>
@@ -5170,9 +5173,9 @@
       <c r="A187" s="17"/>
       <c r="B187" s="17"/>
       <c r="C187" s="17"/>
-      <c r="D187" s="140"/>
-      <c r="E187" s="140"/>
-      <c r="F187" s="140"/>
+      <c r="D187" s="191"/>
+      <c r="E187" s="191"/>
+      <c r="F187" s="191"/>
       <c r="G187" s="17"/>
       <c r="H187" s="17"/>
     </row>
@@ -5180,9 +5183,9 @@
       <c r="A188" s="17"/>
       <c r="B188" s="17"/>
       <c r="C188" s="17"/>
-      <c r="D188" s="140"/>
-      <c r="E188" s="140"/>
-      <c r="F188" s="140"/>
+      <c r="D188" s="191"/>
+      <c r="E188" s="191"/>
+      <c r="F188" s="191"/>
       <c r="G188" s="17"/>
       <c r="H188" s="17"/>
     </row>
@@ -5190,9 +5193,9 @@
       <c r="A189" s="17"/>
       <c r="B189" s="17"/>
       <c r="C189" s="17"/>
-      <c r="D189" s="140"/>
-      <c r="E189" s="140"/>
-      <c r="F189" s="140"/>
+      <c r="D189" s="191"/>
+      <c r="E189" s="191"/>
+      <c r="F189" s="191"/>
       <c r="G189" s="17"/>
       <c r="H189" s="17"/>
     </row>
@@ -5210,21 +5213,21 @@
       <c r="A191" s="44"/>
       <c r="B191" s="44"/>
       <c r="C191" s="44"/>
-      <c r="D191" s="142"/>
-      <c r="E191" s="142"/>
-      <c r="F191" s="142"/>
-      <c r="G191" s="142"/>
-      <c r="H191" s="142"/>
+      <c r="D191" s="188"/>
+      <c r="E191" s="188"/>
+      <c r="F191" s="188"/>
+      <c r="G191" s="188"/>
+      <c r="H191" s="188"/>
     </row>
     <row r="192" spans="1:8" ht="32.25" customHeight="1">
       <c r="A192" s="44"/>
       <c r="B192" s="44"/>
       <c r="C192" s="44"/>
-      <c r="D192" s="142"/>
-      <c r="E192" s="142"/>
-      <c r="F192" s="142"/>
-      <c r="G192" s="142"/>
-      <c r="H192" s="142"/>
+      <c r="D192" s="188"/>
+      <c r="E192" s="188"/>
+      <c r="F192" s="188"/>
+      <c r="G192" s="188"/>
+      <c r="H192" s="188"/>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="17"/>
@@ -5260,108 +5263,88 @@
       <c r="A196" s="44"/>
       <c r="B196" s="44"/>
       <c r="C196" s="44"/>
-      <c r="D196" s="141"/>
-      <c r="E196" s="141"/>
-      <c r="F196" s="141"/>
-      <c r="G196" s="141"/>
-      <c r="H196" s="141"/>
+      <c r="D196" s="193"/>
+      <c r="E196" s="193"/>
+      <c r="F196" s="193"/>
+      <c r="G196" s="193"/>
+      <c r="H196" s="193"/>
     </row>
     <row r="197" spans="1:8" ht="17.25" customHeight="1">
       <c r="A197" s="44"/>
       <c r="B197" s="44"/>
       <c r="C197" s="44"/>
-      <c r="D197" s="141"/>
-      <c r="E197" s="141"/>
-      <c r="F197" s="141"/>
-      <c r="G197" s="141"/>
-      <c r="H197" s="141"/>
+      <c r="D197" s="193"/>
+      <c r="E197" s="193"/>
+      <c r="F197" s="193"/>
+      <c r="G197" s="193"/>
+      <c r="H197" s="193"/>
     </row>
     <row r="198" spans="1:8" ht="18" customHeight="1">
       <c r="A198" s="44"/>
       <c r="B198" s="44"/>
       <c r="C198" s="44"/>
-      <c r="D198" s="141"/>
-      <c r="E198" s="141"/>
-      <c r="F198" s="141"/>
-      <c r="G198" s="141"/>
-      <c r="H198" s="141"/>
+      <c r="D198" s="193"/>
+      <c r="E198" s="193"/>
+      <c r="F198" s="193"/>
+      <c r="G198" s="193"/>
+      <c r="H198" s="193"/>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="44"/>
       <c r="B199" s="44"/>
       <c r="C199" s="44"/>
-      <c r="D199" s="141"/>
-      <c r="E199" s="141"/>
-      <c r="F199" s="141"/>
-      <c r="G199" s="141"/>
-      <c r="H199" s="141"/>
+      <c r="D199" s="193"/>
+      <c r="E199" s="193"/>
+      <c r="F199" s="193"/>
+      <c r="G199" s="193"/>
+      <c r="H199" s="193"/>
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="D58:H58"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D180:F180"/>
+    <mergeCell ref="D181:F181"/>
+    <mergeCell ref="D198:H198"/>
+    <mergeCell ref="D199:H199"/>
+    <mergeCell ref="D188:F188"/>
+    <mergeCell ref="D189:F189"/>
+    <mergeCell ref="D191:H191"/>
+    <mergeCell ref="D192:H192"/>
+    <mergeCell ref="D182:F182"/>
+    <mergeCell ref="D183:F183"/>
+    <mergeCell ref="D196:H196"/>
+    <mergeCell ref="D197:H197"/>
+    <mergeCell ref="D184:F184"/>
+    <mergeCell ref="D185:F185"/>
+    <mergeCell ref="D186:F186"/>
+    <mergeCell ref="D187:F187"/>
+    <mergeCell ref="F170:G170"/>
+    <mergeCell ref="F171:H171"/>
+    <mergeCell ref="D178:F178"/>
+    <mergeCell ref="D179:F179"/>
+    <mergeCell ref="F164:G164"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="F167:G167"/>
+    <mergeCell ref="F168:G168"/>
+    <mergeCell ref="F169:G169"/>
+    <mergeCell ref="F151:H151"/>
+    <mergeCell ref="F153:H153"/>
+    <mergeCell ref="F156:H156"/>
+    <mergeCell ref="F158:H158"/>
+    <mergeCell ref="F159:H159"/>
+    <mergeCell ref="F160:H160"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="F163:G163"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="D145:H145"/>
+    <mergeCell ref="F147:H147"/>
+    <mergeCell ref="F149:H149"/>
     <mergeCell ref="D76:F76"/>
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="F26:H26"/>
@@ -5386,50 +5369,70 @@
     <mergeCell ref="F41:H41"/>
     <mergeCell ref="F42:H42"/>
     <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="D145:H145"/>
-    <mergeCell ref="F147:H147"/>
-    <mergeCell ref="F149:H149"/>
-    <mergeCell ref="F151:H151"/>
-    <mergeCell ref="F153:H153"/>
-    <mergeCell ref="F156:H156"/>
-    <mergeCell ref="F158:H158"/>
-    <mergeCell ref="F159:H159"/>
-    <mergeCell ref="F160:H160"/>
-    <mergeCell ref="F161:G161"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="F163:G163"/>
-    <mergeCell ref="F170:G170"/>
-    <mergeCell ref="F171:H171"/>
-    <mergeCell ref="D178:F178"/>
-    <mergeCell ref="D179:F179"/>
-    <mergeCell ref="F164:G164"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="F167:G167"/>
-    <mergeCell ref="F168:G168"/>
-    <mergeCell ref="F169:G169"/>
-    <mergeCell ref="D180:F180"/>
-    <mergeCell ref="D181:F181"/>
-    <mergeCell ref="D198:H198"/>
-    <mergeCell ref="D199:H199"/>
-    <mergeCell ref="D188:F188"/>
-    <mergeCell ref="D189:F189"/>
-    <mergeCell ref="D191:H191"/>
-    <mergeCell ref="D192:H192"/>
-    <mergeCell ref="D182:F182"/>
-    <mergeCell ref="D183:F183"/>
-    <mergeCell ref="D196:H196"/>
-    <mergeCell ref="D197:H197"/>
-    <mergeCell ref="D184:F184"/>
-    <mergeCell ref="D185:F185"/>
-    <mergeCell ref="D186:F186"/>
-    <mergeCell ref="D187:F187"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="D58:H58"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="D47:H47"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D84:E85">
@@ -5485,11 +5488,11 @@
       <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="B2" s="86"/>
-      <c r="C2" s="195" t="s">
-        <v>174</v>
-      </c>
-      <c r="D2" s="196"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="194" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="195"/>
       <c r="E2" s="60"/>
       <c r="F2" s="60"/>
     </row>
@@ -5501,21 +5504,21 @@
       <c r="F3" s="60"/>
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1">
-      <c r="B4" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="197" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="198"/>
+      <c r="B4" s="86" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="196" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="197"/>
     </row>
     <row r="5" spans="1:10" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="87" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="234" t="s">
-        <v>176</v>
+      <c r="B5" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="198" t="s">
+        <v>171</v>
       </c>
       <c r="D5" s="199"/>
       <c r="E5" s="71"/>
@@ -5529,591 +5532,591 @@
       <c r="F6" s="60"/>
     </row>
     <row r="7" spans="1:10" s="64" customFormat="1" ht="38.25">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="119" t="s">
+      <c r="C7" s="118" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="118" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="118" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="118" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="118" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="118" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="119" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="111" customFormat="1" ht="45" customHeight="1">
+      <c r="A8" s="111" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="106" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="113" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="114">
+        <v>42301</v>
+      </c>
+      <c r="H8" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="I8" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="J8" s="125" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="111" customFormat="1" ht="45" customHeight="1">
+      <c r="B9" s="107" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="114">
+        <v>42301</v>
+      </c>
+      <c r="H9" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="I9" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="J9" s="125" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="111" customFormat="1" ht="45" customHeight="1">
+      <c r="B10" s="107" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="114">
+        <v>42301</v>
+      </c>
+      <c r="H10" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="I10" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="J10" s="125" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="111" customFormat="1" ht="45" customHeight="1">
+      <c r="B11" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="101" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="114">
+        <v>42301</v>
+      </c>
+      <c r="H11" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="J11" s="125" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="111" customFormat="1" ht="45" customHeight="1">
+      <c r="B12" s="107" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="102" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="114">
+        <v>42301</v>
+      </c>
+      <c r="H12" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12" s="125" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="111" customFormat="1" ht="45" customHeight="1">
+      <c r="B13" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="101" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="114">
+        <v>42301</v>
+      </c>
+      <c r="H13" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" s="125" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="111" customFormat="1" ht="45" customHeight="1">
+      <c r="B14" s="107" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="101" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="114">
+        <v>42301</v>
+      </c>
+      <c r="H14" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="I14" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" s="125" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="111" customFormat="1" ht="45" customHeight="1">
+      <c r="B15" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="114">
+        <v>42301</v>
+      </c>
+      <c r="H15" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="I15" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" s="125" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="111" customFormat="1" ht="45" customHeight="1">
+      <c r="B16" s="106" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="103" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="114">
+        <v>42301</v>
+      </c>
+      <c r="H16" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="I16" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" s="125" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" s="111" customFormat="1" ht="45" customHeight="1">
+      <c r="B17" s="107" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="101" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="114">
+        <v>42301</v>
+      </c>
+      <c r="H17" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="I17" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" s="125" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" s="111" customFormat="1" ht="45" customHeight="1">
+      <c r="B18" s="107" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="101" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="114">
+        <v>42301</v>
+      </c>
+      <c r="H18" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="I18" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" s="125" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" s="111" customFormat="1" ht="45" customHeight="1">
+      <c r="B19" s="107" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="101" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="114">
+        <v>42301</v>
+      </c>
+      <c r="H19" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="I19" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" s="125" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" s="111" customFormat="1" ht="45" customHeight="1">
+      <c r="B20" s="106" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="103" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="114">
+        <v>42301</v>
+      </c>
+      <c r="H20" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="I20" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" s="125" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" s="111" customFormat="1" ht="45" customHeight="1">
+      <c r="B21" s="107" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="102" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="114">
+        <v>42301</v>
+      </c>
+      <c r="H21" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="I21" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="J21" s="125" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" s="111" customFormat="1" ht="45" customHeight="1">
+      <c r="B22" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="103" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="114">
+        <v>42301</v>
+      </c>
+      <c r="H22" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="I22" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="J22" s="125" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" s="111" customFormat="1" ht="45" customHeight="1">
+      <c r="B23" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="114">
+        <v>42301</v>
+      </c>
+      <c r="H23" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="I23" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="J23" s="125" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" s="111" customFormat="1" ht="45" customHeight="1">
+      <c r="B24" s="107" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="101" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="114">
+        <v>42301</v>
+      </c>
+      <c r="H24" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="I24" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="J24" s="125" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" s="111" customFormat="1" ht="45" customHeight="1">
+      <c r="B25" s="107" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="119" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="119" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="119" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="119" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="119" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="119" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="120" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="112" customFormat="1" ht="45" customHeight="1">
-      <c r="A8" s="112" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="107" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="100" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="114" t="s">
+      <c r="E25" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="114" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="115">
+      <c r="F25" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="114">
         <v>42301</v>
       </c>
-      <c r="H8" s="116" t="s">
-        <v>150</v>
-      </c>
-      <c r="I8" s="117" t="s">
-        <v>149</v>
-      </c>
-      <c r="J8" s="126" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="112" customFormat="1" ht="45" customHeight="1">
-      <c r="B9" s="108" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="101" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="114" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="114" t="s">
+      <c r="H25" s="115" t="s">
+        <v>147</v>
+      </c>
+      <c r="I25" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="J25" s="125" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" s="111" customFormat="1" ht="45" customHeight="1" thickBot="1">
+      <c r="B26" s="108" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="120" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="105" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="115">
+      <c r="G26" s="122">
         <v>42301</v>
       </c>
-      <c r="H9" s="116" t="s">
-        <v>150</v>
-      </c>
-      <c r="I9" s="117" t="s">
-        <v>149</v>
-      </c>
-      <c r="J9" s="126" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="112" customFormat="1" ht="45" customHeight="1">
-      <c r="B10" s="108" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="102" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" s="114" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="114" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="115">
-        <v>42301</v>
-      </c>
-      <c r="H10" s="116" t="s">
-        <v>150</v>
-      </c>
-      <c r="I10" s="117" t="s">
-        <v>149</v>
-      </c>
-      <c r="J10" s="126" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="112" customFormat="1" ht="45" customHeight="1">
-      <c r="B11" s="108" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="102" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="114" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="114" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="115">
-        <v>42301</v>
-      </c>
-      <c r="H11" s="116" t="s">
-        <v>150</v>
-      </c>
-      <c r="I11" s="117" t="s">
-        <v>149</v>
-      </c>
-      <c r="J11" s="126" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="112" customFormat="1" ht="45" customHeight="1">
-      <c r="B12" s="108" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="103" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="114" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="114" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="115">
-        <v>42301</v>
-      </c>
-      <c r="H12" s="116" t="s">
-        <v>150</v>
-      </c>
-      <c r="I12" s="117" t="s">
-        <v>149</v>
-      </c>
-      <c r="J12" s="126" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="112" customFormat="1" ht="45" customHeight="1">
-      <c r="B13" s="108" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="102" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13" s="114" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="114" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="115">
-        <v>42301</v>
-      </c>
-      <c r="H13" s="116" t="s">
-        <v>150</v>
-      </c>
-      <c r="I13" s="117" t="s">
-        <v>149</v>
-      </c>
-      <c r="J13" s="126" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="112" customFormat="1" ht="45" customHeight="1">
-      <c r="B14" s="108" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="102" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="114" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="114" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="115">
-        <v>42301</v>
-      </c>
-      <c r="H14" s="116" t="s">
-        <v>150</v>
-      </c>
-      <c r="I14" s="117" t="s">
-        <v>149</v>
-      </c>
-      <c r="J14" s="126" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="112" customFormat="1" ht="45" customHeight="1">
-      <c r="B15" s="108" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" s="103" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="114" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="114" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="115">
-        <v>42301</v>
-      </c>
-      <c r="H15" s="116" t="s">
-        <v>150</v>
-      </c>
-      <c r="I15" s="117" t="s">
-        <v>149</v>
-      </c>
-      <c r="J15" s="126" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="112" customFormat="1" ht="45" customHeight="1">
-      <c r="B16" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="104" t="s">
-        <v>120</v>
-      </c>
-      <c r="E16" s="114" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="114" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="115">
-        <v>42301</v>
-      </c>
-      <c r="H16" s="116" t="s">
-        <v>150</v>
-      </c>
-      <c r="I16" s="117" t="s">
-        <v>149</v>
-      </c>
-      <c r="J16" s="126" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" s="112" customFormat="1" ht="45" customHeight="1">
-      <c r="B17" s="108" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="102" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="114" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="114" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="115">
-        <v>42301</v>
-      </c>
-      <c r="H17" s="116" t="s">
-        <v>150</v>
-      </c>
-      <c r="I17" s="117" t="s">
-        <v>149</v>
-      </c>
-      <c r="J17" s="126" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" s="112" customFormat="1" ht="45" customHeight="1">
-      <c r="B18" s="108" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="102" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="114" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="114" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="115">
-        <v>42301</v>
-      </c>
-      <c r="H18" s="116" t="s">
-        <v>150</v>
-      </c>
-      <c r="I18" s="117" t="s">
-        <v>149</v>
-      </c>
-      <c r="J18" s="126" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" s="112" customFormat="1" ht="45" customHeight="1">
-      <c r="B19" s="108" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="102" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" s="114" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="114" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="115">
-        <v>42301</v>
-      </c>
-      <c r="H19" s="116" t="s">
-        <v>150</v>
-      </c>
-      <c r="I19" s="117" t="s">
-        <v>149</v>
-      </c>
-      <c r="J19" s="126" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" s="112" customFormat="1" ht="45" customHeight="1">
-      <c r="B20" s="107" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="104" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20" s="114" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="114" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="115">
-        <v>42301</v>
-      </c>
-      <c r="H20" s="116" t="s">
-        <v>150</v>
-      </c>
-      <c r="I20" s="117" t="s">
-        <v>149</v>
-      </c>
-      <c r="J20" s="126" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" s="112" customFormat="1" ht="45" customHeight="1">
-      <c r="B21" s="108" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="103" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" s="114" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="114" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="115">
-        <v>42301</v>
-      </c>
-      <c r="H21" s="116" t="s">
-        <v>150</v>
-      </c>
-      <c r="I21" s="117" t="s">
-        <v>149</v>
-      </c>
-      <c r="J21" s="126" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" s="112" customFormat="1" ht="45" customHeight="1">
-      <c r="B22" s="107" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="104" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="114" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="114" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="115">
-        <v>42301</v>
-      </c>
-      <c r="H22" s="116" t="s">
-        <v>150</v>
-      </c>
-      <c r="I22" s="117" t="s">
-        <v>149</v>
-      </c>
-      <c r="J22" s="126" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" s="112" customFormat="1" ht="45" customHeight="1">
-      <c r="B23" s="108" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="102" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" s="114" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="114" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="115">
-        <v>42301</v>
-      </c>
-      <c r="H23" s="116" t="s">
-        <v>150</v>
-      </c>
-      <c r="I23" s="117" t="s">
-        <v>149</v>
-      </c>
-      <c r="J23" s="126" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" s="112" customFormat="1" ht="45" customHeight="1">
-      <c r="B24" s="108" t="s">
+      <c r="H26" s="123" t="s">
+        <v>147</v>
+      </c>
+      <c r="I26" s="124" t="s">
         <v>146</v>
       </c>
-      <c r="C24" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="102" t="s">
-        <v>128</v>
-      </c>
-      <c r="E24" s="114" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="114" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="115">
-        <v>42301</v>
-      </c>
-      <c r="H24" s="116" t="s">
-        <v>150</v>
-      </c>
-      <c r="I24" s="117" t="s">
-        <v>149</v>
-      </c>
-      <c r="J24" s="126" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" s="112" customFormat="1" ht="45" customHeight="1">
-      <c r="B25" s="108" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="105" t="s">
-        <v>175</v>
-      </c>
-      <c r="E25" s="114" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" s="114" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="115">
-        <v>42301</v>
-      </c>
-      <c r="H25" s="116" t="s">
-        <v>150</v>
-      </c>
-      <c r="I25" s="117" t="s">
-        <v>149</v>
-      </c>
-      <c r="J25" s="126" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" s="112" customFormat="1" ht="45" customHeight="1" thickBot="1">
-      <c r="B26" s="109" t="s">
+      <c r="J26" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="C26" s="121" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="106" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" s="122" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="122" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="123">
-        <v>42301</v>
-      </c>
-      <c r="H26" s="124" t="s">
-        <v>150</v>
-      </c>
-      <c r="I26" s="125" t="s">
-        <v>149</v>
-      </c>
-      <c r="J26" s="127" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="H27" s="110"/>
-      <c r="I27" s="111"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6172,12 +6175,12 @@
       <c r="E1" s="60"/>
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1">
-      <c r="B2" s="88"/>
-      <c r="C2" s="195" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="194" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="203"/>
-      <c r="E2" s="196"/>
+      <c r="E2" s="195"/>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="60"/>
@@ -6186,8 +6189,8 @@
       <c r="E3" s="60"/>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1">
-      <c r="B4" s="89" t="s">
-        <v>160</v>
+      <c r="B4" s="88" t="s">
+        <v>155</v>
       </c>
       <c r="C4" s="202" t="str">
         <f>IF(NOT(ISBLANK('Requerimientos de Usuario'!C4)),'Requerimientos de Usuario'!C4," - ")</f>
@@ -6198,8 +6201,8 @@
     </row>
     <row r="5" spans="1:5" s="63" customFormat="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="89" t="s">
-        <v>84</v>
+      <c r="B5" s="88" t="s">
+        <v>83</v>
       </c>
       <c r="C5" s="202" t="str">
         <f>IF(NOT(ISBLANK('Requerimientos de Usuario'!C5)),'Requerimientos de Usuario'!C5," - ")</f>
@@ -6209,10 +6212,10 @@
       <c r="E5" s="202"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
     </row>
     <row r="7" spans="1:5" ht="25.5" customHeight="1">
       <c r="B7" s="206" t="s">
@@ -6231,10 +6234,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="201"/>
-      <c r="D8" s="92" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="91">
+      <c r="D8" s="91" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="90">
         <v>42287</v>
       </c>
     </row>
@@ -6361,34 +6364,34 @@
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="72" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="72" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="57" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="57" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -6424,7 +6427,7 @@
   <dimension ref="B2:G23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B31" sqref="B31:E31"/>
       <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
@@ -6441,268 +6444,261 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" customFormat="1" ht="47.25" customHeight="1">
-      <c r="B2" s="96"/>
-      <c r="C2" s="208" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="210"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="226" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="228"/>
     </row>
     <row r="3" spans="2:6" ht="13.5" thickBot="1"/>
     <row r="4" spans="2:6" s="3" customFormat="1">
-      <c r="B4" s="211" t="s">
+      <c r="B4" s="229" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="212"/>
-      <c r="D4" s="128" t="s">
+      <c r="C4" s="230"/>
+      <c r="D4" s="127" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="128" t="s">
+      <c r="E4" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="129" t="s">
+      <c r="F4" s="128" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="63.75">
-      <c r="B5" s="213" t="s">
+      <c r="B5" s="231" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="214"/>
-      <c r="D5" s="94" t="s">
+      <c r="C5" s="232"/>
+      <c r="D5" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="134" t="s">
+      <c r="E5" s="133" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="129"/>
+    </row>
+    <row r="6" spans="2:6" ht="25.5">
+      <c r="B6" s="231" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="232"/>
+      <c r="D6" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="96" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="129"/>
+    </row>
+    <row r="7" spans="2:6" ht="51">
+      <c r="B7" s="216" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="217"/>
+      <c r="D7" s="92" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="134" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="129"/>
+    </row>
+    <row r="8" spans="2:6" ht="178.5">
+      <c r="B8" s="216" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="217"/>
+      <c r="D8" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="134" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="129"/>
+    </row>
+    <row r="9" spans="2:6" ht="38.25">
+      <c r="B9" s="216" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="217"/>
+      <c r="D9" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="134" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="129"/>
+    </row>
+    <row r="10" spans="2:6" ht="25.5">
+      <c r="B10" s="216" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="217"/>
+      <c r="D10" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="134" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="129"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="218" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="219"/>
+      <c r="D11" s="211" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="96" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="130" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="25.5">
+      <c r="B12" s="222"/>
+      <c r="C12" s="223"/>
+      <c r="D12" s="233"/>
+      <c r="E12" s="98" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="130"/>
-    </row>
-    <row r="6" spans="2:6" ht="25.5">
-      <c r="B6" s="213" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="214"/>
-      <c r="D6" s="93" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="130"/>
-    </row>
-    <row r="7" spans="2:6" ht="51">
-      <c r="B7" s="217" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="218"/>
-      <c r="D7" s="93" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="135" t="s">
+    </row>
+    <row r="13" spans="2:6" ht="204">
+      <c r="B13" s="216" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="217"/>
+      <c r="D13" s="92" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="130"/>
-    </row>
-    <row r="8" spans="2:6" ht="178.5">
-      <c r="B8" s="217" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="218"/>
-      <c r="D8" s="93" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="135" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="130"/>
-    </row>
-    <row r="9" spans="2:6" ht="38.25">
-      <c r="B9" s="217" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="218"/>
-      <c r="D9" s="93" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="135" t="s">
+      <c r="F13" s="129"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="218" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="219"/>
+      <c r="D14" s="211" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="96" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="131" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="220"/>
+      <c r="C15" s="221"/>
+      <c r="D15" s="212"/>
+      <c r="E15" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="131" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="220"/>
+      <c r="C16" s="221"/>
+      <c r="D16" s="214"/>
+      <c r="E16" s="96" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="130" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="25.5">
+      <c r="B17" s="220"/>
+      <c r="C17" s="221"/>
+      <c r="D17" s="214"/>
+      <c r="E17" s="96" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="131" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="25.5">
+      <c r="B18" s="222"/>
+      <c r="C18" s="223"/>
+      <c r="D18" s="215"/>
+      <c r="E18" s="96" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="131" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="89.25">
+      <c r="B19" s="216" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="217"/>
+      <c r="D19" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="130"/>
-    </row>
-    <row r="10" spans="2:6" ht="25.5">
-      <c r="B10" s="217" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="218"/>
-      <c r="D10" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="135" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="130"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="219" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="220"/>
-      <c r="D11" s="215" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="97" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="131" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="25.5">
-      <c r="B12" s="221"/>
-      <c r="C12" s="222"/>
-      <c r="D12" s="216"/>
-      <c r="E12" s="99" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="132" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="204">
-      <c r="B13" s="217" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="218"/>
-      <c r="D13" s="93" t="s">
-        <v>163</v>
-      </c>
-      <c r="E13" s="97" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="130"/>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="219" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="220"/>
-      <c r="D14" s="215" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="97" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="132" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="230"/>
-      <c r="C15" s="231"/>
-      <c r="D15" s="226"/>
-      <c r="E15" s="97" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="132" t="s">
+      <c r="F19" s="129"/>
+    </row>
+    <row r="20" spans="2:6" ht="12.75" customHeight="1">
+      <c r="B20" s="218" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="219"/>
+      <c r="D20" s="211" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="208"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="220"/>
+      <c r="C21" s="221"/>
+      <c r="D21" s="212"/>
+      <c r="E21" s="97" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="230"/>
-      <c r="C16" s="231"/>
-      <c r="D16" s="228"/>
-      <c r="E16" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="131" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="25.5">
-      <c r="B17" s="230"/>
-      <c r="C17" s="231"/>
-      <c r="D17" s="228"/>
-      <c r="E17" s="97" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="132" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="25.5">
-      <c r="B18" s="221"/>
-      <c r="C18" s="222"/>
-      <c r="D18" s="229"/>
-      <c r="E18" s="97" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="132" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="89.25">
-      <c r="B19" s="217" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="218"/>
-      <c r="D19" s="95" t="s">
-        <v>164</v>
-      </c>
-      <c r="E19" s="97" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="130"/>
-    </row>
-    <row r="20" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B20" s="219" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="220"/>
-      <c r="D20" s="215" t="s">
-        <v>171</v>
-      </c>
-      <c r="E20" s="97" t="s">
-        <v>165</v>
-      </c>
-      <c r="F20" s="223"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="230"/>
-      <c r="C21" s="231"/>
-      <c r="D21" s="226"/>
-      <c r="E21" s="98" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="224"/>
+      <c r="F21" s="209"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="230"/>
-      <c r="C22" s="231"/>
-      <c r="D22" s="226"/>
-      <c r="E22" s="97" t="s">
-        <v>172</v>
-      </c>
-      <c r="F22" s="224"/>
+      <c r="B22" s="220"/>
+      <c r="C22" s="221"/>
+      <c r="D22" s="212"/>
+      <c r="E22" s="96" t="s">
+        <v>167</v>
+      </c>
+      <c r="F22" s="209"/>
     </row>
     <row r="23" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B23" s="232"/>
-      <c r="C23" s="233"/>
-      <c r="D23" s="227"/>
-      <c r="E23" s="133" t="s">
-        <v>173</v>
-      </c>
-      <c r="F23" s="225"/>
+      <c r="B23" s="224"/>
+      <c r="C23" s="225"/>
+      <c r="D23" s="213"/>
+      <c r="E23" s="132" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23" s="210"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C23"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
@@ -6713,6 +6709,13 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C12"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.67" right="0.75" top="0.79" bottom="0.7" header="0" footer="0.17"/>
